--- a/figures/bayesgraph/Creating.xlsx
+++ b/figures/bayesgraph/Creating.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CreatingAll-Free" sheetId="1" r:id="rId1"/>
     <sheet name="CreatingAll-Meeting" sheetId="3" r:id="rId2"/>
-    <sheet name="CreatingSet-Free" sheetId="2" r:id="rId3"/>
-    <sheet name="CreatingSet-Meeting" sheetId="6" r:id="rId4"/>
+    <sheet name="CreatingSet-Free" sheetId="7" r:id="rId3"/>
+    <sheet name="CreatingSet-Meeting" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
   <si>
     <t>Threhold</t>
   </si>
@@ -53,6 +53,74 @@
   </si>
   <si>
     <t>WarningRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArgoUML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArgoUML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jFreeChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuxguitar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1640,29 +1708,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1676,40 +1744,1536 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>74.610780000000005</v>
+      </c>
+      <c r="C3">
+        <v>95.906899999999993</v>
+      </c>
+      <c r="D3">
+        <v>92.851590000000002</v>
+      </c>
+      <c r="F3">
+        <v>70.748500000000007</v>
+      </c>
+      <c r="G3">
+        <v>95.641130000000004</v>
+      </c>
+      <c r="H3">
+        <v>87.801090000000002</v>
+      </c>
+      <c r="J3">
+        <v>47.305390000000003</v>
+      </c>
+      <c r="K3">
+        <v>98.10127</v>
+      </c>
+      <c r="L3">
+        <v>60.217559999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>76.826350000000005</v>
+      </c>
+      <c r="C4">
+        <v>95.206549999999993</v>
+      </c>
+      <c r="D4">
+        <v>94.910640000000001</v>
+      </c>
+      <c r="F4">
+        <v>73.532929999999993</v>
+      </c>
+      <c r="G4">
+        <v>95.07329</v>
+      </c>
+      <c r="H4">
+        <v>90.714839999999995</v>
+      </c>
+      <c r="J4">
+        <v>61.736530000000002</v>
+      </c>
+      <c r="K4">
+        <v>96.993210000000005</v>
+      </c>
+      <c r="L4">
+        <v>77.70008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>77.634730000000005</v>
+      </c>
+      <c r="C5">
+        <v>94.832239999999999</v>
+      </c>
+      <c r="D5">
+        <v>95.532250000000005</v>
+      </c>
+      <c r="F5">
+        <v>74.820359999999994</v>
+      </c>
+      <c r="G5">
+        <v>94.597840000000005</v>
+      </c>
+      <c r="H5">
+        <v>91.841489999999993</v>
+      </c>
+      <c r="J5">
+        <v>69.101799999999997</v>
+      </c>
+      <c r="K5">
+        <v>96.317160000000001</v>
+      </c>
+      <c r="L5">
+        <v>86.363640000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>78.263469999999998</v>
+      </c>
+      <c r="C6">
+        <v>94.682479999999998</v>
+      </c>
+      <c r="D6">
+        <v>96.153850000000006</v>
+      </c>
+      <c r="F6">
+        <v>75.928139999999999</v>
+      </c>
+      <c r="G6">
+        <v>94.321770000000001</v>
+      </c>
+      <c r="H6">
+        <v>92.929289999999995</v>
+      </c>
+      <c r="J6">
+        <v>71.526949999999999</v>
+      </c>
+      <c r="K6">
+        <v>95.897869999999998</v>
+      </c>
+      <c r="L6">
+        <v>89.005439999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <v>78.682630000000003</v>
+      </c>
+      <c r="C7">
+        <v>94.634699999999995</v>
+      </c>
+      <c r="D7">
+        <v>96.620050000000006</v>
+      </c>
+      <c r="F7">
+        <v>77.305390000000003</v>
+      </c>
+      <c r="G7">
+        <v>93.803250000000006</v>
+      </c>
+      <c r="H7">
+        <v>94.094790000000003</v>
+      </c>
+      <c r="J7">
+        <v>74.970060000000004</v>
+      </c>
+      <c r="K7">
+        <v>94.928120000000007</v>
+      </c>
+      <c r="L7">
+        <v>92.346540000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>79.071860000000001</v>
+      </c>
+      <c r="C8">
+        <v>94.547520000000006</v>
+      </c>
+      <c r="D8">
+        <v>97.00855</v>
+      </c>
+      <c r="F8">
+        <v>77.78443</v>
+      </c>
+      <c r="G8">
+        <v>93.610470000000007</v>
+      </c>
+      <c r="H8">
+        <v>94.483289999999997</v>
+      </c>
+      <c r="J8">
+        <v>75.958079999999995</v>
+      </c>
+      <c r="K8">
+        <v>94.560500000000005</v>
+      </c>
+      <c r="L8">
+        <v>93.201239999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <v>79.19162</v>
+      </c>
+      <c r="C9">
+        <v>94.480149999999995</v>
+      </c>
+      <c r="D9">
+        <v>97.086250000000007</v>
+      </c>
+      <c r="F9">
+        <v>78.233530000000002</v>
+      </c>
+      <c r="G9">
+        <v>93.455799999999996</v>
+      </c>
+      <c r="H9">
+        <v>94.871790000000004</v>
+      </c>
+      <c r="J9">
+        <v>77.09581</v>
+      </c>
+      <c r="K9">
+        <v>94.019419999999997</v>
+      </c>
+      <c r="L9">
+        <v>94.055940000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>79.251499999999993</v>
+      </c>
+      <c r="C10">
+        <v>94.484319999999997</v>
+      </c>
+      <c r="D10">
+        <v>97.16395</v>
+      </c>
+      <c r="F10">
+        <v>78.383229999999998</v>
+      </c>
+      <c r="G10">
+        <v>93.391900000000007</v>
+      </c>
+      <c r="H10">
+        <v>94.988339999999994</v>
+      </c>
+      <c r="J10">
+        <v>78.353290000000001</v>
+      </c>
+      <c r="K10">
+        <v>93.427589999999995</v>
+      </c>
+      <c r="L10">
+        <v>94.988339999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.45</v>
+      </c>
+      <c r="B11">
+        <v>79.251499999999993</v>
+      </c>
+      <c r="C11">
+        <v>94.484319999999997</v>
+      </c>
+      <c r="D11">
+        <v>97.16395</v>
+      </c>
+      <c r="F11">
+        <v>78.742509999999996</v>
+      </c>
+      <c r="G11">
+        <v>93.307980000000001</v>
+      </c>
+      <c r="H11">
+        <v>95.337999999999994</v>
+      </c>
+      <c r="J11">
+        <v>79.880240000000001</v>
+      </c>
+      <c r="K11">
+        <v>93.065969999999993</v>
+      </c>
+      <c r="L11">
+        <v>96.464650000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>79.461079999999995</v>
+      </c>
+      <c r="C12">
+        <v>94.461190000000002</v>
+      </c>
+      <c r="D12">
+        <v>97.397049999999993</v>
+      </c>
+      <c r="F12">
+        <v>79.221559999999997</v>
+      </c>
+      <c r="G12">
+        <v>93.197280000000006</v>
+      </c>
+      <c r="H12">
+        <v>95.804199999999994</v>
+      </c>
+      <c r="J12">
+        <v>80.389219999999995</v>
+      </c>
+      <c r="K12">
+        <v>92.923649999999995</v>
+      </c>
+      <c r="L12">
+        <v>96.930850000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.01</v>
+      </c>
+      <c r="B17">
+        <v>73.93365</v>
+      </c>
+      <c r="C17">
+        <v>97.222219999999993</v>
+      </c>
+      <c r="D17">
+        <v>81.25</v>
+      </c>
+      <c r="F17">
+        <v>72.195890000000006</v>
+      </c>
+      <c r="G17">
+        <v>96.936539999999994</v>
+      </c>
+      <c r="H17">
+        <v>79.107140000000001</v>
+      </c>
+      <c r="J17">
+        <v>32.947119999999998</v>
+      </c>
+      <c r="K17">
+        <v>99.098290000000006</v>
+      </c>
+      <c r="L17">
+        <v>54.595129999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.05</v>
+      </c>
+      <c r="B18">
+        <v>78.672989999999999</v>
+      </c>
+      <c r="C18">
+        <v>95.983940000000004</v>
+      </c>
+      <c r="D18">
+        <v>85.357140000000001</v>
+      </c>
+      <c r="F18">
+        <v>76.303319999999999</v>
+      </c>
+      <c r="G18">
+        <v>96.480329999999995</v>
+      </c>
+      <c r="H18">
+        <v>83.214290000000005</v>
+      </c>
+      <c r="J18">
+        <v>42.186570000000003</v>
+      </c>
+      <c r="K18">
+        <v>97.253519999999995</v>
+      </c>
+      <c r="L18">
+        <v>68.604069999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.1</v>
+      </c>
+      <c r="B19">
+        <v>80.726699999999994</v>
+      </c>
+      <c r="C19">
+        <v>95.10763</v>
+      </c>
+      <c r="D19">
+        <v>86.785709999999995</v>
+      </c>
+      <c r="F19">
+        <v>78.515010000000004</v>
+      </c>
+      <c r="G19">
+        <v>95.774649999999994</v>
+      </c>
+      <c r="H19">
+        <v>85</v>
+      </c>
+      <c r="J19">
+        <v>47.652999999999999</v>
+      </c>
+      <c r="K19">
+        <v>95.012469999999993</v>
+      </c>
+      <c r="L19">
+        <v>75.707899999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.15</v>
+      </c>
+      <c r="B20">
+        <v>81.674570000000003</v>
+      </c>
+      <c r="C20">
+        <v>94.97099</v>
+      </c>
+      <c r="D20">
+        <v>87.678569999999993</v>
+      </c>
+      <c r="F20">
+        <v>80.094790000000003</v>
+      </c>
+      <c r="G20">
+        <v>95.660749999999993</v>
+      </c>
+      <c r="H20">
+        <v>86.607140000000001</v>
+      </c>
+      <c r="J20">
+        <v>52.554960000000001</v>
+      </c>
+      <c r="K20">
+        <v>93.95138</v>
+      </c>
+      <c r="L20">
+        <v>82.563339999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <v>82.148499999999999</v>
+      </c>
+      <c r="C21">
+        <v>94.615380000000002</v>
+      </c>
+      <c r="D21">
+        <v>87.857140000000001</v>
+      </c>
+      <c r="F21">
+        <v>81.358609999999999</v>
+      </c>
+      <c r="G21">
+        <v>94.757279999999994</v>
+      </c>
+      <c r="H21">
+        <v>87.142859999999999</v>
+      </c>
+      <c r="J21">
+        <v>54.099820000000001</v>
+      </c>
+      <c r="K21">
+        <v>93.3553</v>
+      </c>
+      <c r="L21">
+        <v>84.451070000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.25</v>
+      </c>
+      <c r="B22">
+        <v>83.570300000000003</v>
+      </c>
+      <c r="C22">
+        <v>94.517960000000002</v>
+      </c>
+      <c r="D22">
+        <v>89.285709999999995</v>
+      </c>
+      <c r="F22">
+        <v>82.148499999999999</v>
+      </c>
+      <c r="G22">
+        <v>94.807689999999994</v>
+      </c>
+      <c r="H22">
+        <v>88.035709999999995</v>
+      </c>
+      <c r="J22">
+        <v>55.496139999999997</v>
+      </c>
+      <c r="K22">
+        <v>92.880089999999996</v>
+      </c>
+      <c r="L22">
+        <v>86.189769999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.3</v>
+      </c>
+      <c r="B23">
+        <v>83.728279999999998</v>
+      </c>
+      <c r="C23">
+        <v>94.528300000000002</v>
+      </c>
+      <c r="D23">
+        <v>89.464290000000005</v>
+      </c>
+      <c r="F23">
+        <v>82.780410000000003</v>
+      </c>
+      <c r="G23">
+        <v>94.847329999999999</v>
+      </c>
+      <c r="H23">
+        <v>88.75</v>
+      </c>
+      <c r="J23">
+        <v>57.070709999999998</v>
+      </c>
+      <c r="K23">
+        <v>92.399789999999996</v>
+      </c>
+      <c r="L23">
+        <v>88.176850000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.35</v>
+      </c>
+      <c r="B24">
+        <v>84.044229999999999</v>
+      </c>
+      <c r="C24">
+        <v>94.548869999999994</v>
+      </c>
+      <c r="D24">
+        <v>89.821430000000007</v>
+      </c>
+      <c r="F24">
+        <v>83.096369999999993</v>
+      </c>
+      <c r="G24">
+        <v>94.866919999999993</v>
+      </c>
+      <c r="H24">
+        <v>89.107140000000001</v>
+      </c>
+      <c r="J24">
+        <v>57.902549999999998</v>
+      </c>
+      <c r="K24">
+        <v>92.303749999999994</v>
+      </c>
+      <c r="L24">
+        <v>89.369100000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.4</v>
+      </c>
+      <c r="B25">
+        <v>84.518169999999998</v>
+      </c>
+      <c r="C25">
+        <v>94.579440000000005</v>
+      </c>
+      <c r="D25">
+        <v>90.357140000000001</v>
+      </c>
+      <c r="F25">
+        <v>84.202209999999994</v>
+      </c>
+      <c r="G25">
+        <v>94.746719999999996</v>
+      </c>
+      <c r="H25">
+        <v>90.178569999999993</v>
+      </c>
+      <c r="J25">
+        <v>58.615569999999998</v>
+      </c>
+      <c r="K25">
+        <v>91.637100000000004</v>
+      </c>
+      <c r="L25">
+        <v>89.816190000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.45</v>
+      </c>
+      <c r="B26">
+        <v>85.308059999999998</v>
+      </c>
+      <c r="C26">
+        <v>94.44444</v>
+      </c>
+      <c r="D26">
+        <v>91.071430000000007</v>
+      </c>
+      <c r="F26">
+        <v>84.676150000000007</v>
+      </c>
+      <c r="G26">
+        <v>94.589550000000003</v>
+      </c>
+      <c r="H26">
+        <v>90.535709999999995</v>
+      </c>
+      <c r="J26">
+        <v>61.408200000000001</v>
+      </c>
+      <c r="K26">
+        <v>90.420900000000003</v>
+      </c>
+      <c r="L26">
+        <v>92.846500000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>85.939970000000002</v>
+      </c>
+      <c r="C27">
+        <v>94.301469999999995</v>
+      </c>
+      <c r="D27">
+        <v>91.607140000000001</v>
+      </c>
+      <c r="F27">
+        <v>85.150080000000003</v>
+      </c>
+      <c r="G27">
+        <v>94.248609999999999</v>
+      </c>
+      <c r="H27">
+        <v>90.714290000000005</v>
+      </c>
+      <c r="J27">
+        <v>62.834220000000002</v>
+      </c>
+      <c r="K27">
+        <v>89.834519999999998</v>
+      </c>
+      <c r="L27">
+        <v>94.386489999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.01</v>
+      </c>
+      <c r="B32">
+        <v>54.694000000000003</v>
+      </c>
+      <c r="C32">
+        <v>92.395439999999994</v>
+      </c>
+      <c r="D32">
+        <v>84.500749999999996</v>
+      </c>
+      <c r="F32">
+        <v>39.691029999999998</v>
+      </c>
+      <c r="G32">
+        <v>90.943110000000004</v>
+      </c>
+      <c r="H32">
+        <v>60.357680000000002</v>
+      </c>
+      <c r="J32">
+        <v>32.947119999999998</v>
+      </c>
+      <c r="K32">
+        <v>99.098290000000006</v>
+      </c>
+      <c r="L32">
+        <v>54.595129999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.05</v>
+      </c>
+      <c r="B33">
+        <v>57.219250000000002</v>
+      </c>
+      <c r="C33">
+        <v>91.225340000000003</v>
+      </c>
+      <c r="D33">
+        <v>87.282660000000007</v>
+      </c>
+      <c r="F33">
+        <v>43.939390000000003</v>
+      </c>
+      <c r="G33">
+        <v>87.964839999999995</v>
+      </c>
+      <c r="H33">
+        <v>64.629909999999995</v>
+      </c>
+      <c r="J33">
+        <v>42.186570000000003</v>
+      </c>
+      <c r="K33">
+        <v>97.253519999999995</v>
+      </c>
+      <c r="L33">
+        <v>68.604069999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.1</v>
+      </c>
+      <c r="B34">
+        <v>59.239449999999998</v>
+      </c>
+      <c r="C34">
+        <v>89.719160000000002</v>
+      </c>
+      <c r="D34">
+        <v>88.872330000000005</v>
+      </c>
+      <c r="F34">
+        <v>46.70232</v>
+      </c>
+      <c r="G34">
+        <v>86.323160000000001</v>
+      </c>
+      <c r="H34">
+        <v>67.411820000000006</v>
+      </c>
+      <c r="J34">
+        <v>47.652999999999999</v>
+      </c>
+      <c r="K34">
+        <v>95.012469999999993</v>
+      </c>
+      <c r="L34">
+        <v>75.707899999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.15</v>
+      </c>
+      <c r="B35">
+        <v>60.219850000000001</v>
+      </c>
+      <c r="C35">
+        <v>89.146519999999995</v>
+      </c>
+      <c r="D35">
+        <v>89.76652</v>
+      </c>
+      <c r="F35">
+        <v>48.068919999999999</v>
+      </c>
+      <c r="G35">
+        <v>86.155749999999998</v>
+      </c>
+      <c r="H35">
+        <v>69.249880000000005</v>
+      </c>
+      <c r="J35">
+        <v>52.554960000000001</v>
+      </c>
+      <c r="K35">
+        <v>93.95138</v>
+      </c>
+      <c r="L35">
+        <v>82.563339999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.2</v>
+      </c>
+      <c r="B36">
+        <v>61.140819999999998</v>
+      </c>
+      <c r="C36">
+        <v>88.872690000000006</v>
+      </c>
+      <c r="D36">
+        <v>90.859409999999997</v>
+      </c>
+      <c r="F36">
+        <v>48.6631</v>
+      </c>
+      <c r="G36">
+        <v>85.714290000000005</v>
+      </c>
+      <c r="H36">
+        <v>69.746650000000002</v>
+      </c>
+      <c r="J36">
+        <v>54.099820000000001</v>
+      </c>
+      <c r="K36">
+        <v>93.3553</v>
+      </c>
+      <c r="L36">
+        <v>84.451070000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.25</v>
+      </c>
+      <c r="B37">
+        <v>61.467619999999997</v>
+      </c>
+      <c r="C37">
+        <v>88.786850000000001</v>
+      </c>
+      <c r="D37">
+        <v>91.256829999999994</v>
+      </c>
+      <c r="F37">
+        <v>54.78313</v>
+      </c>
+      <c r="G37">
+        <v>82.700649999999996</v>
+      </c>
+      <c r="H37">
+        <v>75.757580000000004</v>
+      </c>
+      <c r="J37">
+        <v>55.496139999999997</v>
+      </c>
+      <c r="K37">
+        <v>92.880089999999996</v>
+      </c>
+      <c r="L37">
+        <v>86.189769999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.3</v>
+      </c>
+      <c r="B38">
+        <v>61.883540000000004</v>
+      </c>
+      <c r="C38">
+        <v>88.62218</v>
+      </c>
+      <c r="D38">
+        <v>91.703919999999997</v>
+      </c>
+      <c r="F38">
+        <v>67.765889999999999</v>
+      </c>
+      <c r="G38">
+        <v>79.526520000000005</v>
+      </c>
+      <c r="H38">
+        <v>90.114260000000002</v>
+      </c>
+      <c r="J38">
+        <v>57.070709999999998</v>
+      </c>
+      <c r="K38">
+        <v>92.399789999999996</v>
+      </c>
+      <c r="L38">
+        <v>88.176850000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.35</v>
+      </c>
+      <c r="B39">
+        <v>62.299469999999999</v>
+      </c>
+      <c r="C39">
+        <v>88.412019999999998</v>
+      </c>
+      <c r="D39">
+        <v>92.101339999999993</v>
+      </c>
+      <c r="F39">
+        <v>68.360069999999993</v>
+      </c>
+      <c r="G39">
+        <v>79.356800000000007</v>
+      </c>
+      <c r="H39">
+        <v>90.710380000000001</v>
+      </c>
+      <c r="J39">
+        <v>57.902549999999998</v>
+      </c>
+      <c r="K39">
+        <v>92.303749999999994</v>
+      </c>
+      <c r="L39">
+        <v>89.369100000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.4</v>
+      </c>
+      <c r="B40">
+        <v>62.834220000000002</v>
+      </c>
+      <c r="C40">
+        <v>88.226950000000002</v>
+      </c>
+      <c r="D40">
+        <v>92.697469999999996</v>
+      </c>
+      <c r="F40">
+        <v>68.805700000000002</v>
+      </c>
+      <c r="G40">
+        <v>79.101900000000001</v>
+      </c>
+      <c r="H40">
+        <v>91.008449999999996</v>
+      </c>
+      <c r="J40">
+        <v>58.615569999999998</v>
+      </c>
+      <c r="K40">
+        <v>91.637100000000004</v>
+      </c>
+      <c r="L40">
+        <v>89.816190000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.45</v>
+      </c>
+      <c r="B41">
+        <v>63.161020000000001</v>
+      </c>
+      <c r="C41">
+        <v>88.00564</v>
+      </c>
+      <c r="D41">
+        <v>92.945849999999993</v>
+      </c>
+      <c r="F41">
+        <v>69.013670000000005</v>
+      </c>
+      <c r="G41">
+        <v>79.035730000000001</v>
+      </c>
+      <c r="H41">
+        <v>91.207149999999999</v>
+      </c>
+      <c r="J41">
+        <v>61.408200000000001</v>
+      </c>
+      <c r="K41">
+        <v>90.420900000000003</v>
+      </c>
+      <c r="L41">
+        <v>92.846500000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.5</v>
+      </c>
+      <c r="B42">
+        <v>63.428400000000003</v>
+      </c>
+      <c r="C42">
+        <v>87.868849999999995</v>
+      </c>
+      <c r="D42">
+        <v>93.194239999999994</v>
+      </c>
+      <c r="F42">
+        <v>69.429590000000005</v>
+      </c>
+      <c r="G42">
+        <v>78.904579999999996</v>
+      </c>
+      <c r="H42">
+        <v>91.604569999999995</v>
+      </c>
+      <c r="J42">
+        <v>62.834220000000002</v>
+      </c>
+      <c r="K42">
+        <v>89.834519999999998</v>
+      </c>
+      <c r="L42">
+        <v>94.386489999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="D46" t="s">
         <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.01</v>
+      </c>
+      <c r="B47">
+        <v>61.51155</v>
+      </c>
+      <c r="C47">
+        <v>88.964730000000003</v>
+      </c>
+      <c r="D47">
+        <v>76.968500000000006</v>
+      </c>
+      <c r="F47">
+        <v>56.752969999999998</v>
+      </c>
+      <c r="G47">
+        <v>89.149199999999993</v>
+      </c>
+      <c r="H47">
+        <v>71.161420000000007</v>
+      </c>
+      <c r="J47">
+        <v>29.601120000000002</v>
+      </c>
+      <c r="K47">
+        <v>93.144210000000001</v>
+      </c>
+      <c r="L47">
+        <v>38.779530000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.05</v>
+      </c>
+      <c r="B48">
+        <v>66.829949999999997</v>
+      </c>
+      <c r="C48">
+        <v>87.958119999999994</v>
+      </c>
+      <c r="D48">
+        <v>82.677170000000004</v>
+      </c>
+      <c r="F48">
+        <v>64.52064</v>
+      </c>
+      <c r="G48">
+        <v>86.984819999999999</v>
+      </c>
+      <c r="H48">
+        <v>78.937010000000001</v>
+      </c>
+      <c r="J48">
+        <v>43.876840000000001</v>
+      </c>
+      <c r="K48">
+        <v>92.344499999999996</v>
+      </c>
+      <c r="L48">
+        <v>56.988190000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.1</v>
+      </c>
+      <c r="B49">
+        <v>69.279219999999995</v>
+      </c>
+      <c r="C49">
+        <v>87.47475</v>
+      </c>
+      <c r="D49">
+        <v>85.236220000000003</v>
+      </c>
+      <c r="F49">
+        <v>67.879639999999995</v>
+      </c>
+      <c r="G49">
+        <v>86.804119999999998</v>
+      </c>
+      <c r="H49">
+        <v>82.874020000000002</v>
+      </c>
+      <c r="J49">
+        <v>51.994399999999999</v>
+      </c>
+      <c r="K49">
+        <v>92.462990000000005</v>
+      </c>
+      <c r="L49">
+        <v>67.618110000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.15</v>
+      </c>
+      <c r="B50">
+        <v>70.818749999999994</v>
+      </c>
+      <c r="C50">
+        <v>86.956519999999998</v>
+      </c>
+      <c r="D50">
+        <v>86.614170000000001</v>
+      </c>
+      <c r="F50">
+        <v>69.559129999999996</v>
+      </c>
+      <c r="G50">
+        <v>86.619720000000001</v>
+      </c>
+      <c r="H50">
+        <v>84.74409</v>
+      </c>
+      <c r="J50">
+        <v>56.543039999999998</v>
+      </c>
+      <c r="K50">
+        <v>91.584159999999997</v>
+      </c>
+      <c r="L50">
+        <v>72.834649999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.2</v>
+      </c>
+      <c r="B51">
+        <v>72.078379999999996</v>
+      </c>
+      <c r="C51">
+        <v>86.601939999999999</v>
+      </c>
+      <c r="D51">
+        <v>87.795280000000005</v>
+      </c>
+      <c r="F51">
+        <v>71.238630000000001</v>
+      </c>
+      <c r="G51">
+        <v>86.051079999999999</v>
+      </c>
+      <c r="H51">
+        <v>86.220470000000006</v>
+      </c>
+      <c r="J51">
+        <v>59.69209</v>
+      </c>
+      <c r="K51">
+        <v>91.559200000000004</v>
+      </c>
+      <c r="L51">
+        <v>76.870080000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.25</v>
+      </c>
+      <c r="B52">
+        <v>72.708190000000002</v>
+      </c>
+      <c r="C52">
+        <v>86.236770000000007</v>
+      </c>
+      <c r="D52">
+        <v>88.188980000000001</v>
+      </c>
+      <c r="F52">
+        <v>72.288309999999996</v>
+      </c>
+      <c r="G52">
+        <v>85.866410000000002</v>
+      </c>
+      <c r="H52">
+        <v>87.303150000000002</v>
+      </c>
+      <c r="J52">
+        <v>63.890830000000001</v>
+      </c>
+      <c r="K52">
+        <v>90.470969999999994</v>
+      </c>
+      <c r="L52">
+        <v>81.299210000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.3</v>
+      </c>
+      <c r="B53">
+        <v>73.198040000000006</v>
+      </c>
+      <c r="C53">
+        <v>86.233270000000005</v>
+      </c>
+      <c r="D53">
+        <v>88.779529999999994</v>
+      </c>
+      <c r="F53">
+        <v>73.268020000000007</v>
+      </c>
+      <c r="G53">
+        <v>85.768860000000004</v>
+      </c>
+      <c r="H53">
+        <v>88.385829999999999</v>
+      </c>
+      <c r="J53">
+        <v>65.92022</v>
+      </c>
+      <c r="K53">
+        <v>90.233549999999994</v>
+      </c>
+      <c r="L53">
+        <v>83.661420000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.35</v>
+      </c>
+      <c r="B54">
+        <v>73.827849999999998</v>
+      </c>
+      <c r="C54">
+        <v>86.06635</v>
+      </c>
+      <c r="D54">
+        <v>89.370080000000002</v>
+      </c>
+      <c r="F54">
+        <v>74.037790000000001</v>
+      </c>
+      <c r="G54">
+        <v>85.633269999999996</v>
+      </c>
+      <c r="H54">
+        <v>89.173230000000004</v>
+      </c>
+      <c r="J54">
+        <v>67.669700000000006</v>
+      </c>
+      <c r="K54">
+        <v>89.555329999999998</v>
+      </c>
+      <c r="L54">
+        <v>85.236220000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.4</v>
+      </c>
+      <c r="B55">
+        <v>74.457660000000004</v>
+      </c>
+      <c r="C55">
+        <v>86.090230000000005</v>
+      </c>
+      <c r="D55">
+        <v>90.157480000000007</v>
+      </c>
+      <c r="F55">
+        <v>75.017489999999995</v>
+      </c>
+      <c r="G55">
+        <v>85.447760000000002</v>
+      </c>
+      <c r="H55">
+        <v>90.157480000000007</v>
+      </c>
+      <c r="J55">
+        <v>69.699089999999998</v>
+      </c>
+      <c r="K55">
+        <v>88.955820000000003</v>
+      </c>
+      <c r="L55">
+        <v>87.204719999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.45</v>
+      </c>
+      <c r="B56">
+        <v>75.017489999999995</v>
+      </c>
+      <c r="C56">
+        <v>86.007459999999995</v>
+      </c>
+      <c r="D56">
+        <v>90.74803</v>
+      </c>
+      <c r="F56">
+        <v>75.437370000000001</v>
+      </c>
+      <c r="G56">
+        <v>85.064940000000007</v>
+      </c>
+      <c r="H56">
+        <v>90.25591</v>
+      </c>
+      <c r="J56">
+        <v>71.588520000000003</v>
+      </c>
+      <c r="K56">
+        <v>88.26979</v>
+      </c>
+      <c r="L56">
+        <v>88.877949999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.5</v>
+      </c>
+      <c r="B57">
+        <v>75.717280000000002</v>
+      </c>
+      <c r="C57">
+        <v>86.136780000000002</v>
+      </c>
+      <c r="D57">
+        <v>91.732280000000003</v>
+      </c>
+      <c r="F57">
+        <v>75.857240000000004</v>
+      </c>
+      <c r="G57">
+        <v>84.778599999999997</v>
+      </c>
+      <c r="H57">
+        <v>90.452759999999998</v>
+      </c>
+      <c r="J57">
+        <v>73.198040000000006</v>
+      </c>
+      <c r="K57">
+        <v>88.049710000000005</v>
+      </c>
+      <c r="L57">
+        <v>90.649609999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1721,29 +3285,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1757,40 +3321,1562 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.99</v>
+      </c>
+      <c r="B3">
+        <v>18.143709999999999</v>
+      </c>
+      <c r="C3">
+        <v>96.864689999999996</v>
+      </c>
+      <c r="D3">
+        <v>76.63185</v>
+      </c>
+      <c r="F3">
+        <v>16.34731</v>
+      </c>
+      <c r="G3">
+        <v>96.337000000000003</v>
+      </c>
+      <c r="H3">
+        <v>68.668409999999994</v>
+      </c>
+      <c r="J3">
+        <v>8.5329300000000003</v>
+      </c>
+      <c r="K3">
+        <v>98.245609999999999</v>
+      </c>
+      <c r="L3">
+        <v>36.553519999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.95</v>
+      </c>
+      <c r="B4">
+        <v>18.712569999999999</v>
+      </c>
+      <c r="C4">
+        <v>95.36</v>
+      </c>
+      <c r="D4">
+        <v>77.806790000000007</v>
+      </c>
+      <c r="F4">
+        <v>17.245509999999999</v>
+      </c>
+      <c r="G4">
+        <v>94.791669999999996</v>
+      </c>
+      <c r="H4">
+        <v>71.27937</v>
+      </c>
+      <c r="J4">
+        <v>15.149699999999999</v>
+      </c>
+      <c r="K4">
+        <v>98.418970000000002</v>
+      </c>
+      <c r="L4">
+        <v>65.013050000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.9</v>
+      </c>
+      <c r="B5">
+        <v>18.952100000000002</v>
+      </c>
+      <c r="C5">
+        <v>94.944710000000001</v>
+      </c>
+      <c r="D5">
+        <v>78.459530000000001</v>
+      </c>
+      <c r="F5">
+        <v>17.96407</v>
+      </c>
+      <c r="G5">
+        <v>92.666669999999996</v>
+      </c>
+      <c r="H5">
+        <v>72.584860000000006</v>
+      </c>
+      <c r="J5">
+        <v>15.77844</v>
+      </c>
+      <c r="K5">
+        <v>98.102469999999997</v>
+      </c>
+      <c r="L5">
+        <v>67.493470000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.85</v>
+      </c>
+      <c r="B6">
+        <v>19.401199999999999</v>
+      </c>
+      <c r="C6">
+        <v>93.518519999999995</v>
+      </c>
+      <c r="D6">
+        <v>79.112269999999995</v>
+      </c>
+      <c r="F6">
+        <v>18.263470000000002</v>
+      </c>
+      <c r="G6">
+        <v>91.803280000000001</v>
+      </c>
+      <c r="H6">
+        <v>73.107050000000001</v>
+      </c>
+      <c r="J6">
+        <v>16.197600000000001</v>
+      </c>
+      <c r="K6">
+        <v>97.042509999999993</v>
+      </c>
+      <c r="L6">
+        <v>68.537859999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.8</v>
+      </c>
+      <c r="B7">
+        <v>19.640720000000002</v>
+      </c>
+      <c r="C7">
+        <v>92.835369999999998</v>
+      </c>
+      <c r="D7">
+        <v>79.503919999999994</v>
+      </c>
+      <c r="F7">
+        <v>18.892219999999998</v>
+      </c>
+      <c r="G7">
+        <v>89.540409999999994</v>
+      </c>
+      <c r="H7">
+        <v>73.759789999999995</v>
+      </c>
+      <c r="J7">
+        <v>16.976050000000001</v>
+      </c>
+      <c r="K7">
+        <v>95.767200000000003</v>
+      </c>
+      <c r="L7">
+        <v>70.887730000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>19.850300000000001</v>
+      </c>
+      <c r="C8">
+        <v>92.458519999999993</v>
+      </c>
+      <c r="D8">
+        <v>80.026110000000003</v>
+      </c>
+      <c r="F8">
+        <v>19.22156</v>
+      </c>
+      <c r="G8">
+        <v>88.785049999999998</v>
+      </c>
+      <c r="H8">
+        <v>74.412530000000004</v>
+      </c>
+      <c r="J8">
+        <v>17.21557</v>
+      </c>
+      <c r="K8">
+        <v>94.608699999999999</v>
+      </c>
+      <c r="L8">
+        <v>71.018280000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>20.02994</v>
+      </c>
+      <c r="C9">
+        <v>91.928250000000006</v>
+      </c>
+      <c r="D9">
+        <v>80.287210000000002</v>
+      </c>
+      <c r="F9">
+        <v>19.670660000000002</v>
+      </c>
+      <c r="G9">
+        <v>87.519030000000001</v>
+      </c>
+      <c r="H9">
+        <v>75.065269999999998</v>
+      </c>
+      <c r="J9">
+        <v>17.514970000000002</v>
+      </c>
+      <c r="K9">
+        <v>94.017089999999996</v>
+      </c>
+      <c r="L9">
+        <v>71.801569999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.65</v>
+      </c>
+      <c r="B10">
+        <v>20.119759999999999</v>
+      </c>
+      <c r="C10">
+        <v>91.815479999999994</v>
+      </c>
+      <c r="D10">
+        <v>80.548299999999998</v>
+      </c>
+      <c r="F10">
+        <v>19.97006</v>
+      </c>
+      <c r="G10">
+        <v>86.656670000000005</v>
+      </c>
+      <c r="H10">
+        <v>75.456919999999997</v>
+      </c>
+      <c r="J10">
+        <v>17.93413</v>
+      </c>
+      <c r="K10">
+        <v>92.487480000000005</v>
+      </c>
+      <c r="L10">
+        <v>72.323759999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <v>20.239519999999999</v>
+      </c>
+      <c r="C11">
+        <v>91.272189999999995</v>
+      </c>
+      <c r="D11">
+        <v>80.548299999999998</v>
+      </c>
+      <c r="F11">
+        <v>20.209579999999999</v>
+      </c>
+      <c r="G11">
+        <v>85.925929999999994</v>
+      </c>
+      <c r="H11">
+        <v>75.718019999999996</v>
+      </c>
+      <c r="J11">
+        <v>18.50299</v>
+      </c>
+      <c r="K11">
+        <v>91.585759999999993</v>
+      </c>
+      <c r="L11">
+        <v>73.890339999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B12">
+        <v>20.479040000000001</v>
+      </c>
+      <c r="C12">
+        <v>90.497079999999997</v>
+      </c>
+      <c r="D12">
+        <v>80.809399999999997</v>
+      </c>
+      <c r="F12">
+        <v>20.598800000000001</v>
+      </c>
+      <c r="G12">
+        <v>85.029070000000004</v>
+      </c>
+      <c r="H12">
+        <v>76.370760000000004</v>
+      </c>
+      <c r="J12">
+        <v>19.071860000000001</v>
+      </c>
+      <c r="K12">
+        <v>89.638930000000002</v>
+      </c>
+      <c r="L12">
+        <v>74.543080000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>20.538920000000001</v>
+      </c>
+      <c r="C13">
+        <v>90.233239999999995</v>
+      </c>
+      <c r="D13">
+        <v>80.809399999999997</v>
+      </c>
+      <c r="F13">
+        <v>20.77844</v>
+      </c>
+      <c r="G13">
+        <v>84.438040000000001</v>
+      </c>
+      <c r="H13">
+        <v>76.501310000000004</v>
+      </c>
+      <c r="J13">
+        <v>19.640720000000002</v>
+      </c>
+      <c r="K13">
+        <v>87.804879999999997</v>
+      </c>
+      <c r="L13">
+        <v>75.195819999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.99</v>
+      </c>
+      <c r="B17">
+        <v>6.0031600000000003</v>
+      </c>
+      <c r="C17">
+        <v>65.789469999999994</v>
+      </c>
+      <c r="D17">
+        <v>34.246580000000002</v>
+      </c>
+      <c r="F17">
+        <v>4.5813600000000001</v>
+      </c>
+      <c r="G17">
+        <v>79.310339999999997</v>
+      </c>
+      <c r="H17">
+        <v>31.50685</v>
+      </c>
+      <c r="J17">
+        <v>25.816990000000001</v>
+      </c>
+      <c r="K17">
+        <v>98.964330000000004</v>
+      </c>
+      <c r="L17">
+        <v>63.562449999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.95</v>
+      </c>
+      <c r="B18">
+        <v>8.5308100000000007</v>
+      </c>
+      <c r="C18">
+        <v>55.55556</v>
+      </c>
+      <c r="D18">
+        <v>41.095889999999997</v>
+      </c>
+      <c r="F18">
+        <v>7.4249599999999996</v>
+      </c>
+      <c r="G18">
+        <v>61.702129999999997</v>
+      </c>
+      <c r="H18">
+        <v>39.726030000000002</v>
+      </c>
+      <c r="J18">
+        <v>29.32264</v>
+      </c>
+      <c r="K18">
+        <v>97.771019999999993</v>
+      </c>
+      <c r="L18">
+        <v>71.322990000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.9</v>
+      </c>
+      <c r="B19">
+        <v>10.268560000000001</v>
+      </c>
+      <c r="C19">
+        <v>52.307690000000001</v>
+      </c>
+      <c r="D19">
+        <v>46.575339999999997</v>
+      </c>
+      <c r="F19">
+        <v>9.4786699999999993</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <v>45.205480000000001</v>
+      </c>
+      <c r="J19">
+        <v>31.907309999999999</v>
+      </c>
+      <c r="K19">
+        <v>96.648039999999995</v>
+      </c>
+      <c r="L19">
+        <v>76.718400000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.85</v>
+      </c>
+      <c r="B20">
+        <v>11.058450000000001</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>47.945210000000003</v>
+      </c>
+      <c r="F20">
+        <v>10.584519999999999</v>
+      </c>
+      <c r="G20">
+        <v>55.223880000000001</v>
+      </c>
+      <c r="H20">
+        <v>50.684930000000001</v>
+      </c>
+      <c r="J20">
+        <v>33.214500000000001</v>
+      </c>
+      <c r="K20">
+        <v>95.527730000000005</v>
+      </c>
+      <c r="L20">
+        <v>78.935699999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.8</v>
+      </c>
+      <c r="B21">
+        <v>12.164300000000001</v>
+      </c>
+      <c r="C21">
+        <v>48.051949999999998</v>
+      </c>
+      <c r="D21">
+        <v>50.684930000000001</v>
+      </c>
+      <c r="F21">
+        <v>11.374409999999999</v>
+      </c>
+      <c r="G21">
+        <v>52.77778</v>
+      </c>
+      <c r="H21">
+        <v>52.054789999999997</v>
+      </c>
+      <c r="J21">
+        <v>33.868090000000002</v>
+      </c>
+      <c r="K21">
+        <v>94.473680000000002</v>
+      </c>
+      <c r="L21">
+        <v>79.600890000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.75</v>
+      </c>
+      <c r="B22">
+        <v>12.32227</v>
+      </c>
+      <c r="C22">
+        <v>48.717950000000002</v>
+      </c>
+      <c r="D22">
+        <v>52.054789999999997</v>
+      </c>
+      <c r="F22">
+        <v>12.63823</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>54.794519999999999</v>
+      </c>
+      <c r="J22">
+        <v>34.402850000000001</v>
+      </c>
+      <c r="K22">
+        <v>94.127809999999997</v>
+      </c>
+      <c r="L22">
+        <v>80.561710000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.7</v>
+      </c>
+      <c r="B23">
+        <v>12.79621</v>
+      </c>
+      <c r="C23">
+        <v>46.913580000000003</v>
+      </c>
+      <c r="D23">
+        <v>52.054789999999997</v>
+      </c>
+      <c r="F23">
+        <v>13.27014</v>
+      </c>
+      <c r="G23">
+        <v>48.809519999999999</v>
+      </c>
+      <c r="H23">
+        <v>56.164380000000001</v>
+      </c>
+      <c r="J23">
+        <v>34.937609999999999</v>
+      </c>
+      <c r="K23">
+        <v>93.537409999999994</v>
+      </c>
+      <c r="L23">
+        <v>81.300809999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.65</v>
+      </c>
+      <c r="B24">
+        <v>13.27014</v>
+      </c>
+      <c r="C24">
+        <v>46.428570000000001</v>
+      </c>
+      <c r="D24">
+        <v>53.424660000000003</v>
+      </c>
+      <c r="F24">
+        <v>13.42812</v>
+      </c>
+      <c r="G24">
+        <v>48.235289999999999</v>
+      </c>
+      <c r="H24">
+        <v>56.164380000000001</v>
+      </c>
+      <c r="J24">
+        <v>35.472369999999998</v>
+      </c>
+      <c r="K24">
+        <v>93.132329999999996</v>
+      </c>
+      <c r="L24">
+        <v>82.187730000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+      <c r="B25">
+        <v>13.5861</v>
+      </c>
+      <c r="C25">
+        <v>46.511629999999997</v>
+      </c>
+      <c r="D25">
+        <v>54.794519999999999</v>
+      </c>
+      <c r="F25">
+        <v>14.21801</v>
+      </c>
+      <c r="G25">
+        <v>45.55556</v>
+      </c>
+      <c r="H25">
+        <v>56.164380000000001</v>
+      </c>
+      <c r="J25">
+        <v>35.888289999999998</v>
+      </c>
+      <c r="K25">
+        <v>92.301320000000004</v>
+      </c>
+      <c r="L25">
+        <v>82.409459999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B26">
+        <v>13.5861</v>
+      </c>
+      <c r="C26">
+        <v>46.511629999999997</v>
+      </c>
+      <c r="D26">
+        <v>54.794519999999999</v>
+      </c>
+      <c r="F26">
+        <v>14.37599</v>
+      </c>
+      <c r="G26">
+        <v>46.153849999999998</v>
+      </c>
+      <c r="H26">
+        <v>57.53425</v>
+      </c>
+      <c r="J26">
+        <v>36.541890000000002</v>
+      </c>
+      <c r="K26">
+        <v>91.626019999999997</v>
+      </c>
+      <c r="L26">
+        <v>83.296379999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>14.060029999999999</v>
+      </c>
+      <c r="C27">
+        <v>47.191009999999999</v>
+      </c>
+      <c r="D27">
+        <v>57.53425</v>
+      </c>
+      <c r="F27">
+        <v>14.849919999999999</v>
+      </c>
+      <c r="G27">
+        <v>44.68085</v>
+      </c>
+      <c r="H27">
+        <v>57.53425</v>
+      </c>
+      <c r="J27">
+        <v>37.195480000000003</v>
+      </c>
+      <c r="K27">
+        <v>90.974440000000001</v>
+      </c>
+      <c r="L27">
+        <v>84.183300000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.99</v>
+      </c>
+      <c r="B32">
+        <v>32.798569999999998</v>
+      </c>
+      <c r="C32">
+        <v>94.2029</v>
+      </c>
+      <c r="D32">
+        <v>76.866219999999998</v>
+      </c>
+      <c r="F32">
+        <v>24.242419999999999</v>
+      </c>
+      <c r="G32">
+        <v>93.75</v>
+      </c>
+      <c r="H32">
+        <v>56.541020000000003</v>
+      </c>
+      <c r="J32">
+        <v>25.816990000000001</v>
+      </c>
+      <c r="K32">
+        <v>98.964330000000004</v>
+      </c>
+      <c r="L32">
+        <v>63.562449999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.95</v>
+      </c>
+      <c r="B33">
+        <v>33.719549999999998</v>
+      </c>
+      <c r="C33">
+        <v>92.599119999999999</v>
+      </c>
+      <c r="D33">
+        <v>77.679230000000004</v>
+      </c>
+      <c r="F33">
+        <v>26.262630000000001</v>
+      </c>
+      <c r="G33">
+        <v>90.045249999999996</v>
+      </c>
+      <c r="H33">
+        <v>58.83222</v>
+      </c>
+      <c r="J33">
+        <v>29.32264</v>
+      </c>
+      <c r="K33">
+        <v>97.771019999999993</v>
+      </c>
+      <c r="L33">
+        <v>71.322990000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.9</v>
+      </c>
+      <c r="B34">
+        <v>34.254309999999997</v>
+      </c>
+      <c r="C34">
+        <v>91.67389</v>
+      </c>
+      <c r="D34">
+        <v>78.122690000000006</v>
+      </c>
+      <c r="F34">
+        <v>27.035060000000001</v>
+      </c>
+      <c r="G34">
+        <v>88.9011</v>
+      </c>
+      <c r="H34">
+        <v>59.793050000000001</v>
+      </c>
+      <c r="J34">
+        <v>31.907309999999999</v>
+      </c>
+      <c r="K34">
+        <v>96.648039999999995</v>
+      </c>
+      <c r="L34">
+        <v>76.718400000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.85</v>
+      </c>
+      <c r="B35">
+        <v>34.551400000000001</v>
+      </c>
+      <c r="C35">
+        <v>91.229579999999999</v>
+      </c>
+      <c r="D35">
+        <v>78.418329999999997</v>
+      </c>
+      <c r="F35">
+        <v>27.718360000000001</v>
+      </c>
+      <c r="G35">
+        <v>88.102890000000002</v>
+      </c>
+      <c r="H35">
+        <v>60.753880000000002</v>
+      </c>
+      <c r="J35">
+        <v>33.214500000000001</v>
+      </c>
+      <c r="K35">
+        <v>95.527730000000005</v>
+      </c>
+      <c r="L35">
+        <v>78.935699999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="B36">
+        <v>35.026739999999997</v>
+      </c>
+      <c r="C36">
+        <v>90.75488</v>
+      </c>
+      <c r="D36">
+        <v>79.083519999999993</v>
+      </c>
+      <c r="F36">
+        <v>28.1937</v>
+      </c>
+      <c r="G36">
+        <v>87.565860000000001</v>
+      </c>
+      <c r="H36">
+        <v>61.419069999999998</v>
+      </c>
+      <c r="J36">
+        <v>33.868090000000002</v>
+      </c>
+      <c r="K36">
+        <v>94.473680000000002</v>
+      </c>
+      <c r="L36">
+        <v>79.600890000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.75</v>
+      </c>
+      <c r="B37">
+        <v>35.383240000000001</v>
+      </c>
+      <c r="C37">
+        <v>90.428210000000007</v>
+      </c>
+      <c r="D37">
+        <v>79.600890000000007</v>
+      </c>
+      <c r="F37">
+        <v>28.55021</v>
+      </c>
+      <c r="G37">
+        <v>87.200829999999996</v>
+      </c>
+      <c r="H37">
+        <v>61.936439999999997</v>
+      </c>
+      <c r="J37">
+        <v>34.402850000000001</v>
+      </c>
+      <c r="K37">
+        <v>94.127809999999997</v>
+      </c>
+      <c r="L37">
+        <v>80.561710000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.7</v>
+      </c>
+      <c r="B38">
+        <v>35.561500000000002</v>
+      </c>
+      <c r="C38">
+        <v>90.309110000000004</v>
+      </c>
+      <c r="D38">
+        <v>79.896529999999998</v>
+      </c>
+      <c r="F38">
+        <v>28.847300000000001</v>
+      </c>
+      <c r="G38">
+        <v>86.611739999999998</v>
+      </c>
+      <c r="H38">
+        <v>62.158169999999998</v>
+      </c>
+      <c r="J38">
+        <v>34.937609999999999</v>
+      </c>
+      <c r="K38">
+        <v>93.537409999999994</v>
+      </c>
+      <c r="L38">
+        <v>81.300809999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.65</v>
+      </c>
+      <c r="B39">
+        <v>35.917999999999999</v>
+      </c>
+      <c r="C39">
+        <v>89.743589999999998</v>
+      </c>
+      <c r="D39">
+        <v>80.192170000000004</v>
+      </c>
+      <c r="F39">
+        <v>29.5306</v>
+      </c>
+      <c r="G39">
+        <v>85.513080000000002</v>
+      </c>
+      <c r="H39">
+        <v>62.823360000000001</v>
+      </c>
+      <c r="J39">
+        <v>35.472369999999998</v>
+      </c>
+      <c r="K39">
+        <v>93.132329999999996</v>
+      </c>
+      <c r="L39">
+        <v>82.187730000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.6</v>
+      </c>
+      <c r="B40">
+        <v>36.185380000000002</v>
+      </c>
+      <c r="C40">
+        <v>89.490970000000004</v>
+      </c>
+      <c r="D40">
+        <v>80.561710000000005</v>
+      </c>
+      <c r="F40">
+        <v>29.916820000000001</v>
+      </c>
+      <c r="G40">
+        <v>84.607749999999996</v>
+      </c>
+      <c r="H40">
+        <v>62.971179999999997</v>
+      </c>
+      <c r="J40">
+        <v>35.888289999999998</v>
+      </c>
+      <c r="K40">
+        <v>92.301320000000004</v>
+      </c>
+      <c r="L40">
+        <v>82.409459999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B41">
+        <v>36.363639999999997</v>
+      </c>
+      <c r="C41">
+        <v>89.297389999999993</v>
+      </c>
+      <c r="D41">
+        <v>80.783439999999999</v>
+      </c>
+      <c r="F41">
+        <v>30.332740000000001</v>
+      </c>
+      <c r="G41">
+        <v>83.93732</v>
+      </c>
+      <c r="H41">
+        <v>63.340719999999997</v>
+      </c>
+      <c r="J41">
+        <v>36.541890000000002</v>
+      </c>
+      <c r="K41">
+        <v>91.626019999999997</v>
+      </c>
+      <c r="L41">
+        <v>83.296379999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.5</v>
+      </c>
+      <c r="B42">
+        <v>36.571599999999997</v>
+      </c>
+      <c r="C42">
+        <v>88.870840000000001</v>
+      </c>
+      <c r="D42">
+        <v>80.857349999999997</v>
+      </c>
+      <c r="F42">
+        <v>30.570409999999999</v>
+      </c>
+      <c r="G42">
+        <v>83.57629</v>
+      </c>
+      <c r="H42">
+        <v>63.562449999999998</v>
+      </c>
+      <c r="J42">
+        <v>37.195480000000003</v>
+      </c>
+      <c r="K42">
+        <v>90.974440000000001</v>
+      </c>
+      <c r="L42">
+        <v>84.183300000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="D46" t="s">
         <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.99</v>
+      </c>
+      <c r="B47">
+        <v>17.634709999999998</v>
+      </c>
+      <c r="C47">
+        <v>87.301590000000004</v>
+      </c>
+      <c r="D47">
+        <v>53.268770000000004</v>
+      </c>
+      <c r="F47">
+        <v>13.435969999999999</v>
+      </c>
+      <c r="G47">
+        <v>87.5</v>
+      </c>
+      <c r="H47">
+        <v>40.677970000000002</v>
+      </c>
+      <c r="J47">
+        <v>4.4086800000000004</v>
+      </c>
+      <c r="K47">
+        <v>92.063490000000002</v>
+      </c>
+      <c r="L47">
+        <v>14.04358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.95</v>
+      </c>
+      <c r="B48">
+        <v>19.034289999999999</v>
+      </c>
+      <c r="C48">
+        <v>85.294120000000007</v>
+      </c>
+      <c r="D48">
+        <v>56.174329999999998</v>
+      </c>
+      <c r="F48">
+        <v>15.955209999999999</v>
+      </c>
+      <c r="G48">
+        <v>85.087720000000004</v>
+      </c>
+      <c r="H48">
+        <v>46.973370000000003</v>
+      </c>
+      <c r="J48">
+        <v>7.7676699999999999</v>
+      </c>
+      <c r="K48">
+        <v>93.693690000000004</v>
+      </c>
+      <c r="L48">
+        <v>25.1816</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.9</v>
+      </c>
+      <c r="B49">
+        <v>20.083970000000001</v>
+      </c>
+      <c r="C49">
+        <v>83.275260000000003</v>
+      </c>
+      <c r="D49">
+        <v>57.869250000000001</v>
+      </c>
+      <c r="F49">
+        <v>17.914629999999999</v>
+      </c>
+      <c r="G49">
+        <v>82.03125</v>
+      </c>
+      <c r="H49">
+        <v>50.847459999999998</v>
+      </c>
+      <c r="J49">
+        <v>11.05668</v>
+      </c>
+      <c r="K49">
+        <v>93.037970000000001</v>
+      </c>
+      <c r="L49">
+        <v>35.593220000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.85</v>
+      </c>
+      <c r="B50">
+        <v>20.573830000000001</v>
+      </c>
+      <c r="C50">
+        <v>82.993200000000002</v>
+      </c>
+      <c r="D50">
+        <v>59.079900000000002</v>
+      </c>
+      <c r="F50">
+        <v>19.524139999999999</v>
+      </c>
+      <c r="G50">
+        <v>79.211470000000006</v>
+      </c>
+      <c r="H50">
+        <v>53.510899999999999</v>
+      </c>
+      <c r="J50">
+        <v>13.71589</v>
+      </c>
+      <c r="K50">
+        <v>89.795919999999995</v>
+      </c>
+      <c r="L50">
+        <v>42.615009999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.75</v>
+      </c>
+      <c r="B51">
+        <v>21.483550000000001</v>
+      </c>
+      <c r="C51">
+        <v>81.210189999999997</v>
+      </c>
+      <c r="D51">
+        <v>60.774819999999998</v>
+      </c>
+      <c r="F51">
+        <v>20.223929999999999</v>
+      </c>
+      <c r="G51">
+        <v>78.546710000000004</v>
+      </c>
+      <c r="H51">
+        <v>54.963679999999997</v>
+      </c>
+      <c r="J51">
+        <v>15.395379999999999</v>
+      </c>
+      <c r="K51">
+        <v>87.272729999999996</v>
+      </c>
+      <c r="L51">
+        <v>46.489100000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.7</v>
+      </c>
+      <c r="B52">
+        <v>21.973410000000001</v>
+      </c>
+      <c r="C52">
+        <v>79.384619999999998</v>
+      </c>
+      <c r="D52">
+        <v>61.743340000000003</v>
+      </c>
+      <c r="F52">
+        <v>21.273620000000001</v>
+      </c>
+      <c r="G52">
+        <v>76.973680000000002</v>
+      </c>
+      <c r="H52">
+        <v>56.6586</v>
+      </c>
+      <c r="J52">
+        <v>17.914629999999999</v>
+      </c>
+      <c r="K52">
+        <v>84.765630000000002</v>
+      </c>
+      <c r="L52">
+        <v>52.542369999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.65</v>
+      </c>
+      <c r="B53">
+        <v>22.743179999999999</v>
+      </c>
+      <c r="C53">
+        <v>79.5107</v>
+      </c>
+      <c r="D53">
+        <v>62.469729999999998</v>
+      </c>
+      <c r="F53">
+        <v>21.483550000000001</v>
+      </c>
+      <c r="G53">
+        <v>76.547229999999999</v>
+      </c>
+      <c r="H53">
+        <v>56.900730000000003</v>
+      </c>
+      <c r="J53">
+        <v>20.50385</v>
+      </c>
+      <c r="K53">
+        <v>83.617750000000001</v>
+      </c>
+      <c r="L53">
+        <v>59.322029999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.6</v>
+      </c>
+      <c r="B54">
+        <v>22.883140000000001</v>
+      </c>
+      <c r="C54">
+        <v>78.378380000000007</v>
+      </c>
+      <c r="D54">
+        <v>62.954000000000001</v>
+      </c>
+      <c r="F54">
+        <v>22.673200000000001</v>
+      </c>
+      <c r="G54">
+        <v>74.382720000000006</v>
+      </c>
+      <c r="H54">
+        <v>58.35351</v>
+      </c>
+      <c r="J54">
+        <v>21.973410000000001</v>
+      </c>
+      <c r="K54">
+        <v>82.165610000000001</v>
+      </c>
+      <c r="L54">
+        <v>62.469729999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B55">
+        <v>23.30301</v>
+      </c>
+      <c r="C55">
+        <v>77.581119999999999</v>
+      </c>
+      <c r="D55">
+        <v>63.196129999999997</v>
+      </c>
+      <c r="F55">
+        <v>23.02309</v>
+      </c>
+      <c r="G55">
+        <v>74.16413</v>
+      </c>
+      <c r="H55">
+        <v>59.079900000000002</v>
+      </c>
+      <c r="J55">
+        <v>23.30301</v>
+      </c>
+      <c r="K55">
+        <v>80.180179999999993</v>
+      </c>
+      <c r="L55">
+        <v>64.648910000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.5</v>
+      </c>
+      <c r="B56">
+        <v>23.72288</v>
+      </c>
+      <c r="C56">
+        <v>75.792509999999993</v>
+      </c>
+      <c r="D56">
+        <v>63.680390000000003</v>
+      </c>
+      <c r="F56">
+        <v>23.652899999999999</v>
+      </c>
+      <c r="G56">
+        <v>72.78107</v>
+      </c>
+      <c r="H56">
+        <v>59.564160000000001</v>
+      </c>
+      <c r="J56">
+        <v>24.702590000000001</v>
+      </c>
+      <c r="K56">
+        <v>78.470249999999993</v>
+      </c>
+      <c r="L56">
+        <v>67.070220000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>24.282720000000001</v>
+      </c>
+      <c r="D57">
+        <v>63.680390000000003</v>
+      </c>
+      <c r="F57">
+        <v>24.142759999999999</v>
+      </c>
+      <c r="G57">
+        <v>71.884060000000005</v>
+      </c>
+      <c r="H57">
+        <v>60.048430000000003</v>
+      </c>
+      <c r="J57">
+        <v>26.94192</v>
+      </c>
+      <c r="K57">
+        <v>74.805189999999996</v>
+      </c>
+      <c r="L57">
+        <v>69.73366</v>
       </c>
     </row>
   </sheetData>

--- a/figures/bayesgraph/Creating.xlsx
+++ b/figures/bayesgraph/Creating.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="CreatingAll-Free" sheetId="1" r:id="rId1"/>
-    <sheet name="CreatingAll-Meeting" sheetId="3" r:id="rId2"/>
-    <sheet name="CreatingSet-Free" sheetId="7" r:id="rId3"/>
+    <sheet name="CreatingSet-Free" sheetId="7" r:id="rId2"/>
+    <sheet name="CreatingAll-Meeting" sheetId="3" r:id="rId3"/>
     <sheet name="CreatingSet-Meeting" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,6 +1076,1583 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>74.610780000000005</v>
+      </c>
+      <c r="C3">
+        <v>95.906899999999993</v>
+      </c>
+      <c r="D3">
+        <v>92.851590000000002</v>
+      </c>
+      <c r="F3">
+        <v>70.748500000000007</v>
+      </c>
+      <c r="G3">
+        <v>95.641130000000004</v>
+      </c>
+      <c r="H3">
+        <v>87.801090000000002</v>
+      </c>
+      <c r="J3">
+        <v>47.305390000000003</v>
+      </c>
+      <c r="K3">
+        <v>98.10127</v>
+      </c>
+      <c r="L3">
+        <v>60.217559999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>76.826350000000005</v>
+      </c>
+      <c r="C4">
+        <v>95.206549999999993</v>
+      </c>
+      <c r="D4">
+        <v>94.910640000000001</v>
+      </c>
+      <c r="F4">
+        <v>73.532929999999993</v>
+      </c>
+      <c r="G4">
+        <v>95.07329</v>
+      </c>
+      <c r="H4">
+        <v>90.714839999999995</v>
+      </c>
+      <c r="J4">
+        <v>61.736530000000002</v>
+      </c>
+      <c r="K4">
+        <v>96.993210000000005</v>
+      </c>
+      <c r="L4">
+        <v>77.70008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>77.634730000000005</v>
+      </c>
+      <c r="C5">
+        <v>94.832239999999999</v>
+      </c>
+      <c r="D5">
+        <v>95.532250000000005</v>
+      </c>
+      <c r="F5">
+        <v>74.820359999999994</v>
+      </c>
+      <c r="G5">
+        <v>94.597840000000005</v>
+      </c>
+      <c r="H5">
+        <v>91.841489999999993</v>
+      </c>
+      <c r="J5">
+        <v>69.101799999999997</v>
+      </c>
+      <c r="K5">
+        <v>96.317160000000001</v>
+      </c>
+      <c r="L5">
+        <v>86.363640000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>78.263469999999998</v>
+      </c>
+      <c r="C6">
+        <v>94.682479999999998</v>
+      </c>
+      <c r="D6">
+        <v>96.153850000000006</v>
+      </c>
+      <c r="F6">
+        <v>75.928139999999999</v>
+      </c>
+      <c r="G6">
+        <v>94.321770000000001</v>
+      </c>
+      <c r="H6">
+        <v>92.929289999999995</v>
+      </c>
+      <c r="J6">
+        <v>71.526949999999999</v>
+      </c>
+      <c r="K6">
+        <v>95.897869999999998</v>
+      </c>
+      <c r="L6">
+        <v>89.005439999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <v>78.682630000000003</v>
+      </c>
+      <c r="C7">
+        <v>94.634699999999995</v>
+      </c>
+      <c r="D7">
+        <v>96.620050000000006</v>
+      </c>
+      <c r="F7">
+        <v>77.305390000000003</v>
+      </c>
+      <c r="G7">
+        <v>93.803250000000006</v>
+      </c>
+      <c r="H7">
+        <v>94.094790000000003</v>
+      </c>
+      <c r="J7">
+        <v>74.970060000000004</v>
+      </c>
+      <c r="K7">
+        <v>94.928120000000007</v>
+      </c>
+      <c r="L7">
+        <v>92.346540000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>79.071860000000001</v>
+      </c>
+      <c r="C8">
+        <v>94.547520000000006</v>
+      </c>
+      <c r="D8">
+        <v>97.00855</v>
+      </c>
+      <c r="F8">
+        <v>77.78443</v>
+      </c>
+      <c r="G8">
+        <v>93.610470000000007</v>
+      </c>
+      <c r="H8">
+        <v>94.483289999999997</v>
+      </c>
+      <c r="J8">
+        <v>75.958079999999995</v>
+      </c>
+      <c r="K8">
+        <v>94.560500000000005</v>
+      </c>
+      <c r="L8">
+        <v>93.201239999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <v>79.19162</v>
+      </c>
+      <c r="C9">
+        <v>94.480149999999995</v>
+      </c>
+      <c r="D9">
+        <v>97.086250000000007</v>
+      </c>
+      <c r="F9">
+        <v>78.233530000000002</v>
+      </c>
+      <c r="G9">
+        <v>93.455799999999996</v>
+      </c>
+      <c r="H9">
+        <v>94.871790000000004</v>
+      </c>
+      <c r="J9">
+        <v>77.09581</v>
+      </c>
+      <c r="K9">
+        <v>94.019419999999997</v>
+      </c>
+      <c r="L9">
+        <v>94.055940000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>79.251499999999993</v>
+      </c>
+      <c r="C10">
+        <v>94.484319999999997</v>
+      </c>
+      <c r="D10">
+        <v>97.16395</v>
+      </c>
+      <c r="F10">
+        <v>78.383229999999998</v>
+      </c>
+      <c r="G10">
+        <v>93.391900000000007</v>
+      </c>
+      <c r="H10">
+        <v>94.988339999999994</v>
+      </c>
+      <c r="J10">
+        <v>78.353290000000001</v>
+      </c>
+      <c r="K10">
+        <v>93.427589999999995</v>
+      </c>
+      <c r="L10">
+        <v>94.988339999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.45</v>
+      </c>
+      <c r="B11">
+        <v>79.251499999999993</v>
+      </c>
+      <c r="C11">
+        <v>94.484319999999997</v>
+      </c>
+      <c r="D11">
+        <v>97.16395</v>
+      </c>
+      <c r="F11">
+        <v>78.742509999999996</v>
+      </c>
+      <c r="G11">
+        <v>93.307980000000001</v>
+      </c>
+      <c r="H11">
+        <v>95.337999999999994</v>
+      </c>
+      <c r="J11">
+        <v>79.880240000000001</v>
+      </c>
+      <c r="K11">
+        <v>93.065969999999993</v>
+      </c>
+      <c r="L11">
+        <v>96.464650000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>79.461079999999995</v>
+      </c>
+      <c r="C12">
+        <v>94.461190000000002</v>
+      </c>
+      <c r="D12">
+        <v>97.397049999999993</v>
+      </c>
+      <c r="F12">
+        <v>79.221559999999997</v>
+      </c>
+      <c r="G12">
+        <v>93.197280000000006</v>
+      </c>
+      <c r="H12">
+        <v>95.804199999999994</v>
+      </c>
+      <c r="J12">
+        <v>80.389219999999995</v>
+      </c>
+      <c r="K12">
+        <v>92.923649999999995</v>
+      </c>
+      <c r="L12">
+        <v>96.930850000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.01</v>
+      </c>
+      <c r="B17">
+        <v>73.93365</v>
+      </c>
+      <c r="C17">
+        <v>97.222219999999993</v>
+      </c>
+      <c r="D17">
+        <v>81.25</v>
+      </c>
+      <c r="F17">
+        <v>72.195890000000006</v>
+      </c>
+      <c r="G17">
+        <v>96.936539999999994</v>
+      </c>
+      <c r="H17">
+        <v>79.107140000000001</v>
+      </c>
+      <c r="J17">
+        <v>32.947119999999998</v>
+      </c>
+      <c r="K17">
+        <v>99.098290000000006</v>
+      </c>
+      <c r="L17">
+        <v>54.595129999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.05</v>
+      </c>
+      <c r="B18">
+        <v>78.672989999999999</v>
+      </c>
+      <c r="C18">
+        <v>95.983940000000004</v>
+      </c>
+      <c r="D18">
+        <v>85.357140000000001</v>
+      </c>
+      <c r="F18">
+        <v>76.303319999999999</v>
+      </c>
+      <c r="G18">
+        <v>96.480329999999995</v>
+      </c>
+      <c r="H18">
+        <v>83.214290000000005</v>
+      </c>
+      <c r="J18">
+        <v>42.186570000000003</v>
+      </c>
+      <c r="K18">
+        <v>97.253519999999995</v>
+      </c>
+      <c r="L18">
+        <v>68.604069999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.1</v>
+      </c>
+      <c r="B19">
+        <v>80.726699999999994</v>
+      </c>
+      <c r="C19">
+        <v>95.10763</v>
+      </c>
+      <c r="D19">
+        <v>86.785709999999995</v>
+      </c>
+      <c r="F19">
+        <v>78.515010000000004</v>
+      </c>
+      <c r="G19">
+        <v>95.774649999999994</v>
+      </c>
+      <c r="H19">
+        <v>85</v>
+      </c>
+      <c r="J19">
+        <v>47.652999999999999</v>
+      </c>
+      <c r="K19">
+        <v>95.012469999999993</v>
+      </c>
+      <c r="L19">
+        <v>75.707899999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.15</v>
+      </c>
+      <c r="B20">
+        <v>81.674570000000003</v>
+      </c>
+      <c r="C20">
+        <v>94.97099</v>
+      </c>
+      <c r="D20">
+        <v>87.678569999999993</v>
+      </c>
+      <c r="F20">
+        <v>80.094790000000003</v>
+      </c>
+      <c r="G20">
+        <v>95.660749999999993</v>
+      </c>
+      <c r="H20">
+        <v>86.607140000000001</v>
+      </c>
+      <c r="J20">
+        <v>52.554960000000001</v>
+      </c>
+      <c r="K20">
+        <v>93.95138</v>
+      </c>
+      <c r="L20">
+        <v>82.563339999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <v>82.148499999999999</v>
+      </c>
+      <c r="C21">
+        <v>94.615380000000002</v>
+      </c>
+      <c r="D21">
+        <v>87.857140000000001</v>
+      </c>
+      <c r="F21">
+        <v>81.358609999999999</v>
+      </c>
+      <c r="G21">
+        <v>94.757279999999994</v>
+      </c>
+      <c r="H21">
+        <v>87.142859999999999</v>
+      </c>
+      <c r="J21">
+        <v>54.099820000000001</v>
+      </c>
+      <c r="K21">
+        <v>93.3553</v>
+      </c>
+      <c r="L21">
+        <v>84.451070000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.25</v>
+      </c>
+      <c r="B22">
+        <v>83.570300000000003</v>
+      </c>
+      <c r="C22">
+        <v>94.517960000000002</v>
+      </c>
+      <c r="D22">
+        <v>89.285709999999995</v>
+      </c>
+      <c r="F22">
+        <v>82.148499999999999</v>
+      </c>
+      <c r="G22">
+        <v>94.807689999999994</v>
+      </c>
+      <c r="H22">
+        <v>88.035709999999995</v>
+      </c>
+      <c r="J22">
+        <v>55.496139999999997</v>
+      </c>
+      <c r="K22">
+        <v>92.880089999999996</v>
+      </c>
+      <c r="L22">
+        <v>86.189769999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.3</v>
+      </c>
+      <c r="B23">
+        <v>83.728279999999998</v>
+      </c>
+      <c r="C23">
+        <v>94.528300000000002</v>
+      </c>
+      <c r="D23">
+        <v>89.464290000000005</v>
+      </c>
+      <c r="F23">
+        <v>82.780410000000003</v>
+      </c>
+      <c r="G23">
+        <v>94.847329999999999</v>
+      </c>
+      <c r="H23">
+        <v>88.75</v>
+      </c>
+      <c r="J23">
+        <v>57.070709999999998</v>
+      </c>
+      <c r="K23">
+        <v>92.399789999999996</v>
+      </c>
+      <c r="L23">
+        <v>88.176850000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.35</v>
+      </c>
+      <c r="B24">
+        <v>84.044229999999999</v>
+      </c>
+      <c r="C24">
+        <v>94.548869999999994</v>
+      </c>
+      <c r="D24">
+        <v>89.821430000000007</v>
+      </c>
+      <c r="F24">
+        <v>83.096369999999993</v>
+      </c>
+      <c r="G24">
+        <v>94.866919999999993</v>
+      </c>
+      <c r="H24">
+        <v>89.107140000000001</v>
+      </c>
+      <c r="J24">
+        <v>57.902549999999998</v>
+      </c>
+      <c r="K24">
+        <v>92.303749999999994</v>
+      </c>
+      <c r="L24">
+        <v>89.369100000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.4</v>
+      </c>
+      <c r="B25">
+        <v>84.518169999999998</v>
+      </c>
+      <c r="C25">
+        <v>94.579440000000005</v>
+      </c>
+      <c r="D25">
+        <v>90.357140000000001</v>
+      </c>
+      <c r="F25">
+        <v>84.202209999999994</v>
+      </c>
+      <c r="G25">
+        <v>94.746719999999996</v>
+      </c>
+      <c r="H25">
+        <v>90.178569999999993</v>
+      </c>
+      <c r="J25">
+        <v>58.615569999999998</v>
+      </c>
+      <c r="K25">
+        <v>91.637100000000004</v>
+      </c>
+      <c r="L25">
+        <v>89.816190000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.45</v>
+      </c>
+      <c r="B26">
+        <v>85.308059999999998</v>
+      </c>
+      <c r="C26">
+        <v>94.44444</v>
+      </c>
+      <c r="D26">
+        <v>91.071430000000007</v>
+      </c>
+      <c r="F26">
+        <v>84.676150000000007</v>
+      </c>
+      <c r="G26">
+        <v>94.589550000000003</v>
+      </c>
+      <c r="H26">
+        <v>90.535709999999995</v>
+      </c>
+      <c r="J26">
+        <v>61.408200000000001</v>
+      </c>
+      <c r="K26">
+        <v>90.420900000000003</v>
+      </c>
+      <c r="L26">
+        <v>92.846500000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>85.939970000000002</v>
+      </c>
+      <c r="C27">
+        <v>94.301469999999995</v>
+      </c>
+      <c r="D27">
+        <v>91.607140000000001</v>
+      </c>
+      <c r="F27">
+        <v>85.150080000000003</v>
+      </c>
+      <c r="G27">
+        <v>94.248609999999999</v>
+      </c>
+      <c r="H27">
+        <v>90.714290000000005</v>
+      </c>
+      <c r="J27">
+        <v>62.834220000000002</v>
+      </c>
+      <c r="K27">
+        <v>89.834519999999998</v>
+      </c>
+      <c r="L27">
+        <v>94.386489999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.01</v>
+      </c>
+      <c r="B32">
+        <v>54.694000000000003</v>
+      </c>
+      <c r="C32">
+        <v>92.395439999999994</v>
+      </c>
+      <c r="D32">
+        <v>84.500749999999996</v>
+      </c>
+      <c r="F32">
+        <v>39.691029999999998</v>
+      </c>
+      <c r="G32">
+        <v>90.943110000000004</v>
+      </c>
+      <c r="H32">
+        <v>60.357680000000002</v>
+      </c>
+      <c r="J32">
+        <v>32.947119999999998</v>
+      </c>
+      <c r="K32">
+        <v>99.098290000000006</v>
+      </c>
+      <c r="L32">
+        <v>54.595129999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.05</v>
+      </c>
+      <c r="B33">
+        <v>57.219250000000002</v>
+      </c>
+      <c r="C33">
+        <v>91.225340000000003</v>
+      </c>
+      <c r="D33">
+        <v>87.282660000000007</v>
+      </c>
+      <c r="F33">
+        <v>43.939390000000003</v>
+      </c>
+      <c r="G33">
+        <v>87.964839999999995</v>
+      </c>
+      <c r="H33">
+        <v>64.629909999999995</v>
+      </c>
+      <c r="J33">
+        <v>42.186570000000003</v>
+      </c>
+      <c r="K33">
+        <v>97.253519999999995</v>
+      </c>
+      <c r="L33">
+        <v>68.604069999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.1</v>
+      </c>
+      <c r="B34">
+        <v>59.239449999999998</v>
+      </c>
+      <c r="C34">
+        <v>89.719160000000002</v>
+      </c>
+      <c r="D34">
+        <v>88.872330000000005</v>
+      </c>
+      <c r="F34">
+        <v>46.70232</v>
+      </c>
+      <c r="G34">
+        <v>86.323160000000001</v>
+      </c>
+      <c r="H34">
+        <v>67.411820000000006</v>
+      </c>
+      <c r="J34">
+        <v>47.652999999999999</v>
+      </c>
+      <c r="K34">
+        <v>95.012469999999993</v>
+      </c>
+      <c r="L34">
+        <v>75.707899999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.15</v>
+      </c>
+      <c r="B35">
+        <v>60.219850000000001</v>
+      </c>
+      <c r="C35">
+        <v>89.146519999999995</v>
+      </c>
+      <c r="D35">
+        <v>89.76652</v>
+      </c>
+      <c r="F35">
+        <v>48.068919999999999</v>
+      </c>
+      <c r="G35">
+        <v>86.155749999999998</v>
+      </c>
+      <c r="H35">
+        <v>69.249880000000005</v>
+      </c>
+      <c r="J35">
+        <v>52.554960000000001</v>
+      </c>
+      <c r="K35">
+        <v>93.95138</v>
+      </c>
+      <c r="L35">
+        <v>82.563339999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.2</v>
+      </c>
+      <c r="B36">
+        <v>61.140819999999998</v>
+      </c>
+      <c r="C36">
+        <v>88.872690000000006</v>
+      </c>
+      <c r="D36">
+        <v>90.859409999999997</v>
+      </c>
+      <c r="F36">
+        <v>48.6631</v>
+      </c>
+      <c r="G36">
+        <v>85.714290000000005</v>
+      </c>
+      <c r="H36">
+        <v>69.746650000000002</v>
+      </c>
+      <c r="J36">
+        <v>54.099820000000001</v>
+      </c>
+      <c r="K36">
+        <v>93.3553</v>
+      </c>
+      <c r="L36">
+        <v>84.451070000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.25</v>
+      </c>
+      <c r="B37">
+        <v>61.467619999999997</v>
+      </c>
+      <c r="C37">
+        <v>88.786850000000001</v>
+      </c>
+      <c r="D37">
+        <v>91.256829999999994</v>
+      </c>
+      <c r="F37">
+        <v>54.78313</v>
+      </c>
+      <c r="G37">
+        <v>82.700649999999996</v>
+      </c>
+      <c r="H37">
+        <v>75.757580000000004</v>
+      </c>
+      <c r="J37">
+        <v>55.496139999999997</v>
+      </c>
+      <c r="K37">
+        <v>92.880089999999996</v>
+      </c>
+      <c r="L37">
+        <v>86.189769999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.3</v>
+      </c>
+      <c r="B38">
+        <v>61.883540000000004</v>
+      </c>
+      <c r="C38">
+        <v>88.62218</v>
+      </c>
+      <c r="D38">
+        <v>91.703919999999997</v>
+      </c>
+      <c r="F38">
+        <v>67.765889999999999</v>
+      </c>
+      <c r="G38">
+        <v>79.526520000000005</v>
+      </c>
+      <c r="H38">
+        <v>90.114260000000002</v>
+      </c>
+      <c r="J38">
+        <v>57.070709999999998</v>
+      </c>
+      <c r="K38">
+        <v>92.399789999999996</v>
+      </c>
+      <c r="L38">
+        <v>88.176850000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.35</v>
+      </c>
+      <c r="B39">
+        <v>62.299469999999999</v>
+      </c>
+      <c r="C39">
+        <v>88.412019999999998</v>
+      </c>
+      <c r="D39">
+        <v>92.101339999999993</v>
+      </c>
+      <c r="F39">
+        <v>68.360069999999993</v>
+      </c>
+      <c r="G39">
+        <v>79.356800000000007</v>
+      </c>
+      <c r="H39">
+        <v>90.710380000000001</v>
+      </c>
+      <c r="J39">
+        <v>57.902549999999998</v>
+      </c>
+      <c r="K39">
+        <v>92.303749999999994</v>
+      </c>
+      <c r="L39">
+        <v>89.369100000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.4</v>
+      </c>
+      <c r="B40">
+        <v>62.834220000000002</v>
+      </c>
+      <c r="C40">
+        <v>88.226950000000002</v>
+      </c>
+      <c r="D40">
+        <v>92.697469999999996</v>
+      </c>
+      <c r="F40">
+        <v>68.805700000000002</v>
+      </c>
+      <c r="G40">
+        <v>79.101900000000001</v>
+      </c>
+      <c r="H40">
+        <v>91.008449999999996</v>
+      </c>
+      <c r="J40">
+        <v>58.615569999999998</v>
+      </c>
+      <c r="K40">
+        <v>91.637100000000004</v>
+      </c>
+      <c r="L40">
+        <v>89.816190000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.45</v>
+      </c>
+      <c r="B41">
+        <v>63.161020000000001</v>
+      </c>
+      <c r="C41">
+        <v>88.00564</v>
+      </c>
+      <c r="D41">
+        <v>92.945849999999993</v>
+      </c>
+      <c r="F41">
+        <v>69.013670000000005</v>
+      </c>
+      <c r="G41">
+        <v>79.035730000000001</v>
+      </c>
+      <c r="H41">
+        <v>91.207149999999999</v>
+      </c>
+      <c r="J41">
+        <v>61.408200000000001</v>
+      </c>
+      <c r="K41">
+        <v>90.420900000000003</v>
+      </c>
+      <c r="L41">
+        <v>92.846500000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.5</v>
+      </c>
+      <c r="B42">
+        <v>63.428400000000003</v>
+      </c>
+      <c r="C42">
+        <v>87.868849999999995</v>
+      </c>
+      <c r="D42">
+        <v>93.194239999999994</v>
+      </c>
+      <c r="F42">
+        <v>69.429590000000005</v>
+      </c>
+      <c r="G42">
+        <v>78.904579999999996</v>
+      </c>
+      <c r="H42">
+        <v>91.604569999999995</v>
+      </c>
+      <c r="J42">
+        <v>62.834220000000002</v>
+      </c>
+      <c r="K42">
+        <v>89.834519999999998</v>
+      </c>
+      <c r="L42">
+        <v>94.386489999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.01</v>
+      </c>
+      <c r="B47">
+        <v>61.51155</v>
+      </c>
+      <c r="C47">
+        <v>88.964730000000003</v>
+      </c>
+      <c r="D47">
+        <v>76.968500000000006</v>
+      </c>
+      <c r="F47">
+        <v>56.752969999999998</v>
+      </c>
+      <c r="G47">
+        <v>89.149199999999993</v>
+      </c>
+      <c r="H47">
+        <v>71.161420000000007</v>
+      </c>
+      <c r="J47">
+        <v>29.601120000000002</v>
+      </c>
+      <c r="K47">
+        <v>93.144210000000001</v>
+      </c>
+      <c r="L47">
+        <v>38.779530000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.05</v>
+      </c>
+      <c r="B48">
+        <v>66.829949999999997</v>
+      </c>
+      <c r="C48">
+        <v>87.958119999999994</v>
+      </c>
+      <c r="D48">
+        <v>82.677170000000004</v>
+      </c>
+      <c r="F48">
+        <v>64.52064</v>
+      </c>
+      <c r="G48">
+        <v>86.984819999999999</v>
+      </c>
+      <c r="H48">
+        <v>78.937010000000001</v>
+      </c>
+      <c r="J48">
+        <v>43.876840000000001</v>
+      </c>
+      <c r="K48">
+        <v>92.344499999999996</v>
+      </c>
+      <c r="L48">
+        <v>56.988190000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.1</v>
+      </c>
+      <c r="B49">
+        <v>69.279219999999995</v>
+      </c>
+      <c r="C49">
+        <v>87.47475</v>
+      </c>
+      <c r="D49">
+        <v>85.236220000000003</v>
+      </c>
+      <c r="F49">
+        <v>67.879639999999995</v>
+      </c>
+      <c r="G49">
+        <v>86.804119999999998</v>
+      </c>
+      <c r="H49">
+        <v>82.874020000000002</v>
+      </c>
+      <c r="J49">
+        <v>51.994399999999999</v>
+      </c>
+      <c r="K49">
+        <v>92.462990000000005</v>
+      </c>
+      <c r="L49">
+        <v>67.618110000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.15</v>
+      </c>
+      <c r="B50">
+        <v>70.818749999999994</v>
+      </c>
+      <c r="C50">
+        <v>86.956519999999998</v>
+      </c>
+      <c r="D50">
+        <v>86.614170000000001</v>
+      </c>
+      <c r="F50">
+        <v>69.559129999999996</v>
+      </c>
+      <c r="G50">
+        <v>86.619720000000001</v>
+      </c>
+      <c r="H50">
+        <v>84.74409</v>
+      </c>
+      <c r="J50">
+        <v>56.543039999999998</v>
+      </c>
+      <c r="K50">
+        <v>91.584159999999997</v>
+      </c>
+      <c r="L50">
+        <v>72.834649999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.2</v>
+      </c>
+      <c r="B51">
+        <v>72.078379999999996</v>
+      </c>
+      <c r="C51">
+        <v>86.601939999999999</v>
+      </c>
+      <c r="D51">
+        <v>87.795280000000005</v>
+      </c>
+      <c r="F51">
+        <v>71.238630000000001</v>
+      </c>
+      <c r="G51">
+        <v>86.051079999999999</v>
+      </c>
+      <c r="H51">
+        <v>86.220470000000006</v>
+      </c>
+      <c r="J51">
+        <v>59.69209</v>
+      </c>
+      <c r="K51">
+        <v>91.559200000000004</v>
+      </c>
+      <c r="L51">
+        <v>76.870080000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.25</v>
+      </c>
+      <c r="B52">
+        <v>72.708190000000002</v>
+      </c>
+      <c r="C52">
+        <v>86.236770000000007</v>
+      </c>
+      <c r="D52">
+        <v>88.188980000000001</v>
+      </c>
+      <c r="F52">
+        <v>72.288309999999996</v>
+      </c>
+      <c r="G52">
+        <v>85.866410000000002</v>
+      </c>
+      <c r="H52">
+        <v>87.303150000000002</v>
+      </c>
+      <c r="J52">
+        <v>63.890830000000001</v>
+      </c>
+      <c r="K52">
+        <v>90.470969999999994</v>
+      </c>
+      <c r="L52">
+        <v>81.299210000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.3</v>
+      </c>
+      <c r="B53">
+        <v>73.198040000000006</v>
+      </c>
+      <c r="C53">
+        <v>86.233270000000005</v>
+      </c>
+      <c r="D53">
+        <v>88.779529999999994</v>
+      </c>
+      <c r="F53">
+        <v>73.268020000000007</v>
+      </c>
+      <c r="G53">
+        <v>85.768860000000004</v>
+      </c>
+      <c r="H53">
+        <v>88.385829999999999</v>
+      </c>
+      <c r="J53">
+        <v>65.92022</v>
+      </c>
+      <c r="K53">
+        <v>90.233549999999994</v>
+      </c>
+      <c r="L53">
+        <v>83.661420000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.35</v>
+      </c>
+      <c r="B54">
+        <v>73.827849999999998</v>
+      </c>
+      <c r="C54">
+        <v>86.06635</v>
+      </c>
+      <c r="D54">
+        <v>89.370080000000002</v>
+      </c>
+      <c r="F54">
+        <v>74.037790000000001</v>
+      </c>
+      <c r="G54">
+        <v>85.633269999999996</v>
+      </c>
+      <c r="H54">
+        <v>89.173230000000004</v>
+      </c>
+      <c r="J54">
+        <v>67.669700000000006</v>
+      </c>
+      <c r="K54">
+        <v>89.555329999999998</v>
+      </c>
+      <c r="L54">
+        <v>85.236220000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.4</v>
+      </c>
+      <c r="B55">
+        <v>74.457660000000004</v>
+      </c>
+      <c r="C55">
+        <v>86.090230000000005</v>
+      </c>
+      <c r="D55">
+        <v>90.157480000000007</v>
+      </c>
+      <c r="F55">
+        <v>75.017489999999995</v>
+      </c>
+      <c r="G55">
+        <v>85.447760000000002</v>
+      </c>
+      <c r="H55">
+        <v>90.157480000000007</v>
+      </c>
+      <c r="J55">
+        <v>69.699089999999998</v>
+      </c>
+      <c r="K55">
+        <v>88.955820000000003</v>
+      </c>
+      <c r="L55">
+        <v>87.204719999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.45</v>
+      </c>
+      <c r="B56">
+        <v>75.017489999999995</v>
+      </c>
+      <c r="C56">
+        <v>86.007459999999995</v>
+      </c>
+      <c r="D56">
+        <v>90.74803</v>
+      </c>
+      <c r="F56">
+        <v>75.437370000000001</v>
+      </c>
+      <c r="G56">
+        <v>85.064940000000007</v>
+      </c>
+      <c r="H56">
+        <v>90.25591</v>
+      </c>
+      <c r="J56">
+        <v>71.588520000000003</v>
+      </c>
+      <c r="K56">
+        <v>88.26979</v>
+      </c>
+      <c r="L56">
+        <v>88.877949999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.5</v>
+      </c>
+      <c r="B57">
+        <v>75.717280000000002</v>
+      </c>
+      <c r="C57">
+        <v>86.136780000000002</v>
+      </c>
+      <c r="D57">
+        <v>91.732280000000003</v>
+      </c>
+      <c r="F57">
+        <v>75.857240000000004</v>
+      </c>
+      <c r="G57">
+        <v>84.778599999999997</v>
+      </c>
+      <c r="H57">
+        <v>90.452759999999998</v>
+      </c>
+      <c r="J57">
+        <v>73.198040000000006</v>
+      </c>
+      <c r="K57">
+        <v>88.049710000000005</v>
+      </c>
+      <c r="L57">
+        <v>90.649609999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -1697,1583 +3274,6 @@
       </c>
       <c r="S13">
         <v>63.680390000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.01</v>
-      </c>
-      <c r="B3">
-        <v>74.610780000000005</v>
-      </c>
-      <c r="C3">
-        <v>95.906899999999993</v>
-      </c>
-      <c r="D3">
-        <v>92.851590000000002</v>
-      </c>
-      <c r="F3">
-        <v>70.748500000000007</v>
-      </c>
-      <c r="G3">
-        <v>95.641130000000004</v>
-      </c>
-      <c r="H3">
-        <v>87.801090000000002</v>
-      </c>
-      <c r="J3">
-        <v>47.305390000000003</v>
-      </c>
-      <c r="K3">
-        <v>98.10127</v>
-      </c>
-      <c r="L3">
-        <v>60.217559999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.05</v>
-      </c>
-      <c r="B4">
-        <v>76.826350000000005</v>
-      </c>
-      <c r="C4">
-        <v>95.206549999999993</v>
-      </c>
-      <c r="D4">
-        <v>94.910640000000001</v>
-      </c>
-      <c r="F4">
-        <v>73.532929999999993</v>
-      </c>
-      <c r="G4">
-        <v>95.07329</v>
-      </c>
-      <c r="H4">
-        <v>90.714839999999995</v>
-      </c>
-      <c r="J4">
-        <v>61.736530000000002</v>
-      </c>
-      <c r="K4">
-        <v>96.993210000000005</v>
-      </c>
-      <c r="L4">
-        <v>77.70008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.1</v>
-      </c>
-      <c r="B5">
-        <v>77.634730000000005</v>
-      </c>
-      <c r="C5">
-        <v>94.832239999999999</v>
-      </c>
-      <c r="D5">
-        <v>95.532250000000005</v>
-      </c>
-      <c r="F5">
-        <v>74.820359999999994</v>
-      </c>
-      <c r="G5">
-        <v>94.597840000000005</v>
-      </c>
-      <c r="H5">
-        <v>91.841489999999993</v>
-      </c>
-      <c r="J5">
-        <v>69.101799999999997</v>
-      </c>
-      <c r="K5">
-        <v>96.317160000000001</v>
-      </c>
-      <c r="L5">
-        <v>86.363640000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.15</v>
-      </c>
-      <c r="B6">
-        <v>78.263469999999998</v>
-      </c>
-      <c r="C6">
-        <v>94.682479999999998</v>
-      </c>
-      <c r="D6">
-        <v>96.153850000000006</v>
-      </c>
-      <c r="F6">
-        <v>75.928139999999999</v>
-      </c>
-      <c r="G6">
-        <v>94.321770000000001</v>
-      </c>
-      <c r="H6">
-        <v>92.929289999999995</v>
-      </c>
-      <c r="J6">
-        <v>71.526949999999999</v>
-      </c>
-      <c r="K6">
-        <v>95.897869999999998</v>
-      </c>
-      <c r="L6">
-        <v>89.005439999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.25</v>
-      </c>
-      <c r="B7">
-        <v>78.682630000000003</v>
-      </c>
-      <c r="C7">
-        <v>94.634699999999995</v>
-      </c>
-      <c r="D7">
-        <v>96.620050000000006</v>
-      </c>
-      <c r="F7">
-        <v>77.305390000000003</v>
-      </c>
-      <c r="G7">
-        <v>93.803250000000006</v>
-      </c>
-      <c r="H7">
-        <v>94.094790000000003</v>
-      </c>
-      <c r="J7">
-        <v>74.970060000000004</v>
-      </c>
-      <c r="K7">
-        <v>94.928120000000007</v>
-      </c>
-      <c r="L7">
-        <v>92.346540000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.3</v>
-      </c>
-      <c r="B8">
-        <v>79.071860000000001</v>
-      </c>
-      <c r="C8">
-        <v>94.547520000000006</v>
-      </c>
-      <c r="D8">
-        <v>97.00855</v>
-      </c>
-      <c r="F8">
-        <v>77.78443</v>
-      </c>
-      <c r="G8">
-        <v>93.610470000000007</v>
-      </c>
-      <c r="H8">
-        <v>94.483289999999997</v>
-      </c>
-      <c r="J8">
-        <v>75.958079999999995</v>
-      </c>
-      <c r="K8">
-        <v>94.560500000000005</v>
-      </c>
-      <c r="L8">
-        <v>93.201239999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.35</v>
-      </c>
-      <c r="B9">
-        <v>79.19162</v>
-      </c>
-      <c r="C9">
-        <v>94.480149999999995</v>
-      </c>
-      <c r="D9">
-        <v>97.086250000000007</v>
-      </c>
-      <c r="F9">
-        <v>78.233530000000002</v>
-      </c>
-      <c r="G9">
-        <v>93.455799999999996</v>
-      </c>
-      <c r="H9">
-        <v>94.871790000000004</v>
-      </c>
-      <c r="J9">
-        <v>77.09581</v>
-      </c>
-      <c r="K9">
-        <v>94.019419999999997</v>
-      </c>
-      <c r="L9">
-        <v>94.055940000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.4</v>
-      </c>
-      <c r="B10">
-        <v>79.251499999999993</v>
-      </c>
-      <c r="C10">
-        <v>94.484319999999997</v>
-      </c>
-      <c r="D10">
-        <v>97.16395</v>
-      </c>
-      <c r="F10">
-        <v>78.383229999999998</v>
-      </c>
-      <c r="G10">
-        <v>93.391900000000007</v>
-      </c>
-      <c r="H10">
-        <v>94.988339999999994</v>
-      </c>
-      <c r="J10">
-        <v>78.353290000000001</v>
-      </c>
-      <c r="K10">
-        <v>93.427589999999995</v>
-      </c>
-      <c r="L10">
-        <v>94.988339999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.45</v>
-      </c>
-      <c r="B11">
-        <v>79.251499999999993</v>
-      </c>
-      <c r="C11">
-        <v>94.484319999999997</v>
-      </c>
-      <c r="D11">
-        <v>97.16395</v>
-      </c>
-      <c r="F11">
-        <v>78.742509999999996</v>
-      </c>
-      <c r="G11">
-        <v>93.307980000000001</v>
-      </c>
-      <c r="H11">
-        <v>95.337999999999994</v>
-      </c>
-      <c r="J11">
-        <v>79.880240000000001</v>
-      </c>
-      <c r="K11">
-        <v>93.065969999999993</v>
-      </c>
-      <c r="L11">
-        <v>96.464650000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.5</v>
-      </c>
-      <c r="B12">
-        <v>79.461079999999995</v>
-      </c>
-      <c r="C12">
-        <v>94.461190000000002</v>
-      </c>
-      <c r="D12">
-        <v>97.397049999999993</v>
-      </c>
-      <c r="F12">
-        <v>79.221559999999997</v>
-      </c>
-      <c r="G12">
-        <v>93.197280000000006</v>
-      </c>
-      <c r="H12">
-        <v>95.804199999999994</v>
-      </c>
-      <c r="J12">
-        <v>80.389219999999995</v>
-      </c>
-      <c r="K12">
-        <v>92.923649999999995</v>
-      </c>
-      <c r="L12">
-        <v>96.930850000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.01</v>
-      </c>
-      <c r="B17">
-        <v>73.93365</v>
-      </c>
-      <c r="C17">
-        <v>97.222219999999993</v>
-      </c>
-      <c r="D17">
-        <v>81.25</v>
-      </c>
-      <c r="F17">
-        <v>72.195890000000006</v>
-      </c>
-      <c r="G17">
-        <v>96.936539999999994</v>
-      </c>
-      <c r="H17">
-        <v>79.107140000000001</v>
-      </c>
-      <c r="J17">
-        <v>32.947119999999998</v>
-      </c>
-      <c r="K17">
-        <v>99.098290000000006</v>
-      </c>
-      <c r="L17">
-        <v>54.595129999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0.05</v>
-      </c>
-      <c r="B18">
-        <v>78.672989999999999</v>
-      </c>
-      <c r="C18">
-        <v>95.983940000000004</v>
-      </c>
-      <c r="D18">
-        <v>85.357140000000001</v>
-      </c>
-      <c r="F18">
-        <v>76.303319999999999</v>
-      </c>
-      <c r="G18">
-        <v>96.480329999999995</v>
-      </c>
-      <c r="H18">
-        <v>83.214290000000005</v>
-      </c>
-      <c r="J18">
-        <v>42.186570000000003</v>
-      </c>
-      <c r="K18">
-        <v>97.253519999999995</v>
-      </c>
-      <c r="L18">
-        <v>68.604069999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0.1</v>
-      </c>
-      <c r="B19">
-        <v>80.726699999999994</v>
-      </c>
-      <c r="C19">
-        <v>95.10763</v>
-      </c>
-      <c r="D19">
-        <v>86.785709999999995</v>
-      </c>
-      <c r="F19">
-        <v>78.515010000000004</v>
-      </c>
-      <c r="G19">
-        <v>95.774649999999994</v>
-      </c>
-      <c r="H19">
-        <v>85</v>
-      </c>
-      <c r="J19">
-        <v>47.652999999999999</v>
-      </c>
-      <c r="K19">
-        <v>95.012469999999993</v>
-      </c>
-      <c r="L19">
-        <v>75.707899999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.15</v>
-      </c>
-      <c r="B20">
-        <v>81.674570000000003</v>
-      </c>
-      <c r="C20">
-        <v>94.97099</v>
-      </c>
-      <c r="D20">
-        <v>87.678569999999993</v>
-      </c>
-      <c r="F20">
-        <v>80.094790000000003</v>
-      </c>
-      <c r="G20">
-        <v>95.660749999999993</v>
-      </c>
-      <c r="H20">
-        <v>86.607140000000001</v>
-      </c>
-      <c r="J20">
-        <v>52.554960000000001</v>
-      </c>
-      <c r="K20">
-        <v>93.95138</v>
-      </c>
-      <c r="L20">
-        <v>82.563339999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0.2</v>
-      </c>
-      <c r="B21">
-        <v>82.148499999999999</v>
-      </c>
-      <c r="C21">
-        <v>94.615380000000002</v>
-      </c>
-      <c r="D21">
-        <v>87.857140000000001</v>
-      </c>
-      <c r="F21">
-        <v>81.358609999999999</v>
-      </c>
-      <c r="G21">
-        <v>94.757279999999994</v>
-      </c>
-      <c r="H21">
-        <v>87.142859999999999</v>
-      </c>
-      <c r="J21">
-        <v>54.099820000000001</v>
-      </c>
-      <c r="K21">
-        <v>93.3553</v>
-      </c>
-      <c r="L21">
-        <v>84.451070000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.25</v>
-      </c>
-      <c r="B22">
-        <v>83.570300000000003</v>
-      </c>
-      <c r="C22">
-        <v>94.517960000000002</v>
-      </c>
-      <c r="D22">
-        <v>89.285709999999995</v>
-      </c>
-      <c r="F22">
-        <v>82.148499999999999</v>
-      </c>
-      <c r="G22">
-        <v>94.807689999999994</v>
-      </c>
-      <c r="H22">
-        <v>88.035709999999995</v>
-      </c>
-      <c r="J22">
-        <v>55.496139999999997</v>
-      </c>
-      <c r="K22">
-        <v>92.880089999999996</v>
-      </c>
-      <c r="L22">
-        <v>86.189769999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.3</v>
-      </c>
-      <c r="B23">
-        <v>83.728279999999998</v>
-      </c>
-      <c r="C23">
-        <v>94.528300000000002</v>
-      </c>
-      <c r="D23">
-        <v>89.464290000000005</v>
-      </c>
-      <c r="F23">
-        <v>82.780410000000003</v>
-      </c>
-      <c r="G23">
-        <v>94.847329999999999</v>
-      </c>
-      <c r="H23">
-        <v>88.75</v>
-      </c>
-      <c r="J23">
-        <v>57.070709999999998</v>
-      </c>
-      <c r="K23">
-        <v>92.399789999999996</v>
-      </c>
-      <c r="L23">
-        <v>88.176850000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.35</v>
-      </c>
-      <c r="B24">
-        <v>84.044229999999999</v>
-      </c>
-      <c r="C24">
-        <v>94.548869999999994</v>
-      </c>
-      <c r="D24">
-        <v>89.821430000000007</v>
-      </c>
-      <c r="F24">
-        <v>83.096369999999993</v>
-      </c>
-      <c r="G24">
-        <v>94.866919999999993</v>
-      </c>
-      <c r="H24">
-        <v>89.107140000000001</v>
-      </c>
-      <c r="J24">
-        <v>57.902549999999998</v>
-      </c>
-      <c r="K24">
-        <v>92.303749999999994</v>
-      </c>
-      <c r="L24">
-        <v>89.369100000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0.4</v>
-      </c>
-      <c r="B25">
-        <v>84.518169999999998</v>
-      </c>
-      <c r="C25">
-        <v>94.579440000000005</v>
-      </c>
-      <c r="D25">
-        <v>90.357140000000001</v>
-      </c>
-      <c r="F25">
-        <v>84.202209999999994</v>
-      </c>
-      <c r="G25">
-        <v>94.746719999999996</v>
-      </c>
-      <c r="H25">
-        <v>90.178569999999993</v>
-      </c>
-      <c r="J25">
-        <v>58.615569999999998</v>
-      </c>
-      <c r="K25">
-        <v>91.637100000000004</v>
-      </c>
-      <c r="L25">
-        <v>89.816190000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.45</v>
-      </c>
-      <c r="B26">
-        <v>85.308059999999998</v>
-      </c>
-      <c r="C26">
-        <v>94.44444</v>
-      </c>
-      <c r="D26">
-        <v>91.071430000000007</v>
-      </c>
-      <c r="F26">
-        <v>84.676150000000007</v>
-      </c>
-      <c r="G26">
-        <v>94.589550000000003</v>
-      </c>
-      <c r="H26">
-        <v>90.535709999999995</v>
-      </c>
-      <c r="J26">
-        <v>61.408200000000001</v>
-      </c>
-      <c r="K26">
-        <v>90.420900000000003</v>
-      </c>
-      <c r="L26">
-        <v>92.846500000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.5</v>
-      </c>
-      <c r="B27">
-        <v>85.939970000000002</v>
-      </c>
-      <c r="C27">
-        <v>94.301469999999995</v>
-      </c>
-      <c r="D27">
-        <v>91.607140000000001</v>
-      </c>
-      <c r="F27">
-        <v>85.150080000000003</v>
-      </c>
-      <c r="G27">
-        <v>94.248609999999999</v>
-      </c>
-      <c r="H27">
-        <v>90.714290000000005</v>
-      </c>
-      <c r="J27">
-        <v>62.834220000000002</v>
-      </c>
-      <c r="K27">
-        <v>89.834519999999998</v>
-      </c>
-      <c r="L27">
-        <v>94.386489999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.01</v>
-      </c>
-      <c r="B32">
-        <v>54.694000000000003</v>
-      </c>
-      <c r="C32">
-        <v>92.395439999999994</v>
-      </c>
-      <c r="D32">
-        <v>84.500749999999996</v>
-      </c>
-      <c r="F32">
-        <v>39.691029999999998</v>
-      </c>
-      <c r="G32">
-        <v>90.943110000000004</v>
-      </c>
-      <c r="H32">
-        <v>60.357680000000002</v>
-      </c>
-      <c r="J32">
-        <v>32.947119999999998</v>
-      </c>
-      <c r="K32">
-        <v>99.098290000000006</v>
-      </c>
-      <c r="L32">
-        <v>54.595129999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.05</v>
-      </c>
-      <c r="B33">
-        <v>57.219250000000002</v>
-      </c>
-      <c r="C33">
-        <v>91.225340000000003</v>
-      </c>
-      <c r="D33">
-        <v>87.282660000000007</v>
-      </c>
-      <c r="F33">
-        <v>43.939390000000003</v>
-      </c>
-      <c r="G33">
-        <v>87.964839999999995</v>
-      </c>
-      <c r="H33">
-        <v>64.629909999999995</v>
-      </c>
-      <c r="J33">
-        <v>42.186570000000003</v>
-      </c>
-      <c r="K33">
-        <v>97.253519999999995</v>
-      </c>
-      <c r="L33">
-        <v>68.604069999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0.1</v>
-      </c>
-      <c r="B34">
-        <v>59.239449999999998</v>
-      </c>
-      <c r="C34">
-        <v>89.719160000000002</v>
-      </c>
-      <c r="D34">
-        <v>88.872330000000005</v>
-      </c>
-      <c r="F34">
-        <v>46.70232</v>
-      </c>
-      <c r="G34">
-        <v>86.323160000000001</v>
-      </c>
-      <c r="H34">
-        <v>67.411820000000006</v>
-      </c>
-      <c r="J34">
-        <v>47.652999999999999</v>
-      </c>
-      <c r="K34">
-        <v>95.012469999999993</v>
-      </c>
-      <c r="L34">
-        <v>75.707899999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>0.15</v>
-      </c>
-      <c r="B35">
-        <v>60.219850000000001</v>
-      </c>
-      <c r="C35">
-        <v>89.146519999999995</v>
-      </c>
-      <c r="D35">
-        <v>89.76652</v>
-      </c>
-      <c r="F35">
-        <v>48.068919999999999</v>
-      </c>
-      <c r="G35">
-        <v>86.155749999999998</v>
-      </c>
-      <c r="H35">
-        <v>69.249880000000005</v>
-      </c>
-      <c r="J35">
-        <v>52.554960000000001</v>
-      </c>
-      <c r="K35">
-        <v>93.95138</v>
-      </c>
-      <c r="L35">
-        <v>82.563339999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>0.2</v>
-      </c>
-      <c r="B36">
-        <v>61.140819999999998</v>
-      </c>
-      <c r="C36">
-        <v>88.872690000000006</v>
-      </c>
-      <c r="D36">
-        <v>90.859409999999997</v>
-      </c>
-      <c r="F36">
-        <v>48.6631</v>
-      </c>
-      <c r="G36">
-        <v>85.714290000000005</v>
-      </c>
-      <c r="H36">
-        <v>69.746650000000002</v>
-      </c>
-      <c r="J36">
-        <v>54.099820000000001</v>
-      </c>
-      <c r="K36">
-        <v>93.3553</v>
-      </c>
-      <c r="L36">
-        <v>84.451070000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>0.25</v>
-      </c>
-      <c r="B37">
-        <v>61.467619999999997</v>
-      </c>
-      <c r="C37">
-        <v>88.786850000000001</v>
-      </c>
-      <c r="D37">
-        <v>91.256829999999994</v>
-      </c>
-      <c r="F37">
-        <v>54.78313</v>
-      </c>
-      <c r="G37">
-        <v>82.700649999999996</v>
-      </c>
-      <c r="H37">
-        <v>75.757580000000004</v>
-      </c>
-      <c r="J37">
-        <v>55.496139999999997</v>
-      </c>
-      <c r="K37">
-        <v>92.880089999999996</v>
-      </c>
-      <c r="L37">
-        <v>86.189769999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0.3</v>
-      </c>
-      <c r="B38">
-        <v>61.883540000000004</v>
-      </c>
-      <c r="C38">
-        <v>88.62218</v>
-      </c>
-      <c r="D38">
-        <v>91.703919999999997</v>
-      </c>
-      <c r="F38">
-        <v>67.765889999999999</v>
-      </c>
-      <c r="G38">
-        <v>79.526520000000005</v>
-      </c>
-      <c r="H38">
-        <v>90.114260000000002</v>
-      </c>
-      <c r="J38">
-        <v>57.070709999999998</v>
-      </c>
-      <c r="K38">
-        <v>92.399789999999996</v>
-      </c>
-      <c r="L38">
-        <v>88.176850000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0.35</v>
-      </c>
-      <c r="B39">
-        <v>62.299469999999999</v>
-      </c>
-      <c r="C39">
-        <v>88.412019999999998</v>
-      </c>
-      <c r="D39">
-        <v>92.101339999999993</v>
-      </c>
-      <c r="F39">
-        <v>68.360069999999993</v>
-      </c>
-      <c r="G39">
-        <v>79.356800000000007</v>
-      </c>
-      <c r="H39">
-        <v>90.710380000000001</v>
-      </c>
-      <c r="J39">
-        <v>57.902549999999998</v>
-      </c>
-      <c r="K39">
-        <v>92.303749999999994</v>
-      </c>
-      <c r="L39">
-        <v>89.369100000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0.4</v>
-      </c>
-      <c r="B40">
-        <v>62.834220000000002</v>
-      </c>
-      <c r="C40">
-        <v>88.226950000000002</v>
-      </c>
-      <c r="D40">
-        <v>92.697469999999996</v>
-      </c>
-      <c r="F40">
-        <v>68.805700000000002</v>
-      </c>
-      <c r="G40">
-        <v>79.101900000000001</v>
-      </c>
-      <c r="H40">
-        <v>91.008449999999996</v>
-      </c>
-      <c r="J40">
-        <v>58.615569999999998</v>
-      </c>
-      <c r="K40">
-        <v>91.637100000000004</v>
-      </c>
-      <c r="L40">
-        <v>89.816190000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>0.45</v>
-      </c>
-      <c r="B41">
-        <v>63.161020000000001</v>
-      </c>
-      <c r="C41">
-        <v>88.00564</v>
-      </c>
-      <c r="D41">
-        <v>92.945849999999993</v>
-      </c>
-      <c r="F41">
-        <v>69.013670000000005</v>
-      </c>
-      <c r="G41">
-        <v>79.035730000000001</v>
-      </c>
-      <c r="H41">
-        <v>91.207149999999999</v>
-      </c>
-      <c r="J41">
-        <v>61.408200000000001</v>
-      </c>
-      <c r="K41">
-        <v>90.420900000000003</v>
-      </c>
-      <c r="L41">
-        <v>92.846500000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0.5</v>
-      </c>
-      <c r="B42">
-        <v>63.428400000000003</v>
-      </c>
-      <c r="C42">
-        <v>87.868849999999995</v>
-      </c>
-      <c r="D42">
-        <v>93.194239999999994</v>
-      </c>
-      <c r="F42">
-        <v>69.429590000000005</v>
-      </c>
-      <c r="G42">
-        <v>78.904579999999996</v>
-      </c>
-      <c r="H42">
-        <v>91.604569999999995</v>
-      </c>
-      <c r="J42">
-        <v>62.834220000000002</v>
-      </c>
-      <c r="K42">
-        <v>89.834519999999998</v>
-      </c>
-      <c r="L42">
-        <v>94.386489999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K46" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0.01</v>
-      </c>
-      <c r="B47">
-        <v>61.51155</v>
-      </c>
-      <c r="C47">
-        <v>88.964730000000003</v>
-      </c>
-      <c r="D47">
-        <v>76.968500000000006</v>
-      </c>
-      <c r="F47">
-        <v>56.752969999999998</v>
-      </c>
-      <c r="G47">
-        <v>89.149199999999993</v>
-      </c>
-      <c r="H47">
-        <v>71.161420000000007</v>
-      </c>
-      <c r="J47">
-        <v>29.601120000000002</v>
-      </c>
-      <c r="K47">
-        <v>93.144210000000001</v>
-      </c>
-      <c r="L47">
-        <v>38.779530000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>0.05</v>
-      </c>
-      <c r="B48">
-        <v>66.829949999999997</v>
-      </c>
-      <c r="C48">
-        <v>87.958119999999994</v>
-      </c>
-      <c r="D48">
-        <v>82.677170000000004</v>
-      </c>
-      <c r="F48">
-        <v>64.52064</v>
-      </c>
-      <c r="G48">
-        <v>86.984819999999999</v>
-      </c>
-      <c r="H48">
-        <v>78.937010000000001</v>
-      </c>
-      <c r="J48">
-        <v>43.876840000000001</v>
-      </c>
-      <c r="K48">
-        <v>92.344499999999996</v>
-      </c>
-      <c r="L48">
-        <v>56.988190000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0.1</v>
-      </c>
-      <c r="B49">
-        <v>69.279219999999995</v>
-      </c>
-      <c r="C49">
-        <v>87.47475</v>
-      </c>
-      <c r="D49">
-        <v>85.236220000000003</v>
-      </c>
-      <c r="F49">
-        <v>67.879639999999995</v>
-      </c>
-      <c r="G49">
-        <v>86.804119999999998</v>
-      </c>
-      <c r="H49">
-        <v>82.874020000000002</v>
-      </c>
-      <c r="J49">
-        <v>51.994399999999999</v>
-      </c>
-      <c r="K49">
-        <v>92.462990000000005</v>
-      </c>
-      <c r="L49">
-        <v>67.618110000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0.15</v>
-      </c>
-      <c r="B50">
-        <v>70.818749999999994</v>
-      </c>
-      <c r="C50">
-        <v>86.956519999999998</v>
-      </c>
-      <c r="D50">
-        <v>86.614170000000001</v>
-      </c>
-      <c r="F50">
-        <v>69.559129999999996</v>
-      </c>
-      <c r="G50">
-        <v>86.619720000000001</v>
-      </c>
-      <c r="H50">
-        <v>84.74409</v>
-      </c>
-      <c r="J50">
-        <v>56.543039999999998</v>
-      </c>
-      <c r="K50">
-        <v>91.584159999999997</v>
-      </c>
-      <c r="L50">
-        <v>72.834649999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0.2</v>
-      </c>
-      <c r="B51">
-        <v>72.078379999999996</v>
-      </c>
-      <c r="C51">
-        <v>86.601939999999999</v>
-      </c>
-      <c r="D51">
-        <v>87.795280000000005</v>
-      </c>
-      <c r="F51">
-        <v>71.238630000000001</v>
-      </c>
-      <c r="G51">
-        <v>86.051079999999999</v>
-      </c>
-      <c r="H51">
-        <v>86.220470000000006</v>
-      </c>
-      <c r="J51">
-        <v>59.69209</v>
-      </c>
-      <c r="K51">
-        <v>91.559200000000004</v>
-      </c>
-      <c r="L51">
-        <v>76.870080000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>0.25</v>
-      </c>
-      <c r="B52">
-        <v>72.708190000000002</v>
-      </c>
-      <c r="C52">
-        <v>86.236770000000007</v>
-      </c>
-      <c r="D52">
-        <v>88.188980000000001</v>
-      </c>
-      <c r="F52">
-        <v>72.288309999999996</v>
-      </c>
-      <c r="G52">
-        <v>85.866410000000002</v>
-      </c>
-      <c r="H52">
-        <v>87.303150000000002</v>
-      </c>
-      <c r="J52">
-        <v>63.890830000000001</v>
-      </c>
-      <c r="K52">
-        <v>90.470969999999994</v>
-      </c>
-      <c r="L52">
-        <v>81.299210000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0.3</v>
-      </c>
-      <c r="B53">
-        <v>73.198040000000006</v>
-      </c>
-      <c r="C53">
-        <v>86.233270000000005</v>
-      </c>
-      <c r="D53">
-        <v>88.779529999999994</v>
-      </c>
-      <c r="F53">
-        <v>73.268020000000007</v>
-      </c>
-      <c r="G53">
-        <v>85.768860000000004</v>
-      </c>
-      <c r="H53">
-        <v>88.385829999999999</v>
-      </c>
-      <c r="J53">
-        <v>65.92022</v>
-      </c>
-      <c r="K53">
-        <v>90.233549999999994</v>
-      </c>
-      <c r="L53">
-        <v>83.661420000000007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>0.35</v>
-      </c>
-      <c r="B54">
-        <v>73.827849999999998</v>
-      </c>
-      <c r="C54">
-        <v>86.06635</v>
-      </c>
-      <c r="D54">
-        <v>89.370080000000002</v>
-      </c>
-      <c r="F54">
-        <v>74.037790000000001</v>
-      </c>
-      <c r="G54">
-        <v>85.633269999999996</v>
-      </c>
-      <c r="H54">
-        <v>89.173230000000004</v>
-      </c>
-      <c r="J54">
-        <v>67.669700000000006</v>
-      </c>
-      <c r="K54">
-        <v>89.555329999999998</v>
-      </c>
-      <c r="L54">
-        <v>85.236220000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>0.4</v>
-      </c>
-      <c r="B55">
-        <v>74.457660000000004</v>
-      </c>
-      <c r="C55">
-        <v>86.090230000000005</v>
-      </c>
-      <c r="D55">
-        <v>90.157480000000007</v>
-      </c>
-      <c r="F55">
-        <v>75.017489999999995</v>
-      </c>
-      <c r="G55">
-        <v>85.447760000000002</v>
-      </c>
-      <c r="H55">
-        <v>90.157480000000007</v>
-      </c>
-      <c r="J55">
-        <v>69.699089999999998</v>
-      </c>
-      <c r="K55">
-        <v>88.955820000000003</v>
-      </c>
-      <c r="L55">
-        <v>87.204719999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>0.45</v>
-      </c>
-      <c r="B56">
-        <v>75.017489999999995</v>
-      </c>
-      <c r="C56">
-        <v>86.007459999999995</v>
-      </c>
-      <c r="D56">
-        <v>90.74803</v>
-      </c>
-      <c r="F56">
-        <v>75.437370000000001</v>
-      </c>
-      <c r="G56">
-        <v>85.064940000000007</v>
-      </c>
-      <c r="H56">
-        <v>90.25591</v>
-      </c>
-      <c r="J56">
-        <v>71.588520000000003</v>
-      </c>
-      <c r="K56">
-        <v>88.26979</v>
-      </c>
-      <c r="L56">
-        <v>88.877949999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>0.5</v>
-      </c>
-      <c r="B57">
-        <v>75.717280000000002</v>
-      </c>
-      <c r="C57">
-        <v>86.136780000000002</v>
-      </c>
-      <c r="D57">
-        <v>91.732280000000003</v>
-      </c>
-      <c r="F57">
-        <v>75.857240000000004</v>
-      </c>
-      <c r="G57">
-        <v>84.778599999999997</v>
-      </c>
-      <c r="H57">
-        <v>90.452759999999998</v>
-      </c>
-      <c r="J57">
-        <v>73.198040000000006</v>
-      </c>
-      <c r="K57">
-        <v>88.049710000000005</v>
-      </c>
-      <c r="L57">
-        <v>90.649609999999996</v>
       </c>
     </row>
   </sheetData>
